--- a/Resultados/Escenario 5/sales.xlsx
+++ b/Resultados/Escenario 5/sales.xlsx
@@ -490,7 +490,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1552.741879724122</v>
+        <v>1553.478119163911</v>
       </c>
     </row>
     <row r="4">
@@ -509,7 +509,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1835.208277327362</v>
+        <v>1836.506925775788</v>
       </c>
     </row>
     <row r="5">
@@ -528,7 +528,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>1563.247017964291</v>
+        <v>1563.188604247975</v>
       </c>
     </row>
     <row r="6">
@@ -547,7 +547,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>2129.999999999999</v>
+        <v>2021.138579099334</v>
       </c>
     </row>
     <row r="7">
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1738.660540955086</v>
+        <v>1738.542597406698</v>
       </c>
     </row>
     <row r="8">
@@ -585,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>2467.529755458215</v>
+        <v>2468.329194448398</v>
       </c>
     </row>
     <row r="9">
@@ -604,7 +604,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1271</v>
+        <v>1135.323213780111</v>
       </c>
     </row>
     <row r="10">
@@ -623,7 +623,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>2744.602008654981</v>
+        <v>2745.384699643493</v>
       </c>
     </row>
     <row r="11">
@@ -642,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9393701113695</v>
+        <v>339.0622579761948</v>
       </c>
     </row>
     <row r="12">
@@ -661,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>274.8232627520729</v>
+        <v>277.1845530746541</v>
       </c>
     </row>
     <row r="13">
@@ -680,7 +680,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>177.8301075268828</v>
+        <v>182.7252209700655</v>
       </c>
     </row>
     <row r="14">
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1434.953727373606</v>
+        <v>1434.873440635254</v>
       </c>
     </row>
     <row r="15">
@@ -718,7 +718,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>2412.583484719494</v>
+        <v>2412.427853706477</v>
       </c>
     </row>
     <row r="16">
@@ -756,7 +756,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>1525.226295760905</v>
+        <v>1525.962535200696</v>
       </c>
     </row>
     <row r="18">
@@ -775,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>1808.078625296617</v>
+        <v>1809.377273745043</v>
       </c>
     </row>
     <row r="19">
@@ -794,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>1536.487501310899</v>
+        <v>1536.429087594584</v>
       </c>
     </row>
     <row r="20">
@@ -813,7 +813,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>1993.366468610671</v>
+        <v>1994.734450287909</v>
       </c>
     </row>
     <row r="21">
@@ -832,7 +832,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>1712.598006462149</v>
+        <v>1712.480062913761</v>
       </c>
     </row>
     <row r="22">
@@ -851,7 +851,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>2441.795891548779</v>
+        <v>2442.595330538962</v>
       </c>
     </row>
     <row r="23">
@@ -870,7 +870,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>1049.677419354864</v>
+        <v>1110.211032587924</v>
       </c>
     </row>
     <row r="24">
@@ -889,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>2719.784236011118</v>
+        <v>2720.566926999632</v>
       </c>
     </row>
     <row r="25">
@@ -908,7 +908,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>310.1215974675088</v>
+        <v>314.2444853323323</v>
       </c>
     </row>
     <row r="26">
@@ -927,7 +927,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>250.2897809613733</v>
+        <v>252.6510712839554</v>
       </c>
     </row>
     <row r="27">
@@ -946,7 +946,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>157.9663952400879</v>
+        <v>158.4664788803093</v>
       </c>
     </row>
     <row r="28">
@@ -965,7 +965,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>1410.420245582907</v>
+        <v>1410.339958844555</v>
       </c>
     </row>
     <row r="29">
@@ -984,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>2387.471303527306</v>
+        <v>2387.315672514291</v>
       </c>
     </row>
     <row r="30">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>1497.710711797689</v>
+        <v>1498.446951237479</v>
       </c>
     </row>
     <row r="32">
@@ -1041,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>1780.948973265872</v>
+        <v>1782.247621714298</v>
       </c>
     </row>
     <row r="33">
@@ -1060,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>1509.727984657507</v>
+        <v>1509.669570941191</v>
       </c>
     </row>
     <row r="34">
@@ -1079,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>1966.962339799246</v>
+        <v>1968.330321476483</v>
       </c>
     </row>
     <row r="35">
@@ -1098,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>1686.535471969212</v>
+        <v>1686.417528420826</v>
       </c>
     </row>
     <row r="36">
@@ -1117,7 +1117,7 @@
         <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>2416.062027639343</v>
+        <v>2416.861466629526</v>
       </c>
     </row>
     <row r="37">
@@ -1136,7 +1136,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>1085.800606320641</v>
+        <v>1085.098851395738</v>
       </c>
     </row>
     <row r="38">
@@ -1155,7 +1155,7 @@
         <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>2694.966463367256</v>
+        <v>2695.74915435577</v>
       </c>
     </row>
     <row r="39">
@@ -1174,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>285.3038248236462</v>
+        <v>289.4267126884706</v>
       </c>
     </row>
     <row r="40">
@@ -1193,7 +1193,7 @@
         <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>225.7562991706736</v>
+        <v>228.1175894932567</v>
       </c>
     </row>
     <row r="41">
@@ -1212,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>133.7076531503299</v>
+        <v>134.2077367905513</v>
       </c>
     </row>
     <row r="42">
@@ -1231,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>1385.886763792207</v>
+        <v>1385.806477053857</v>
       </c>
     </row>
     <row r="43">
@@ -1250,7 +1250,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>2362.35912233512</v>
+        <v>2362.203491322104</v>
       </c>
     </row>
     <row r="44">
@@ -1288,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>1470.195127834473</v>
+        <v>1470.931367274264</v>
       </c>
     </row>
     <row r="46">
@@ -1307,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>1753.819321235127</v>
+        <v>1755.117969683552</v>
       </c>
     </row>
     <row r="47">
@@ -1326,7 +1326,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>1482.968468004116</v>
+        <v>1482.9100542878</v>
       </c>
     </row>
     <row r="48">
@@ -1345,7 +1345,7 @@
         <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>1940.558210987821</v>
+        <v>1941.926192665057</v>
       </c>
     </row>
     <row r="49">
@@ -1364,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>1660.472937476277</v>
+        <v>1660.35499392789</v>
       </c>
     </row>
     <row r="50">
@@ -1383,7 +1383,7 @@
         <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>2390.328163729907</v>
+        <v>2391.127602720088</v>
       </c>
     </row>
     <row r="51">
@@ -1402,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>1060.688425128455</v>
+        <v>1059.986670203552</v>
       </c>
     </row>
     <row r="52">
@@ -1421,7 +1421,7 @@
         <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>2670.148690723394</v>
+        <v>2670.931381711907</v>
       </c>
     </row>
     <row r="53">
@@ -1440,7 +1440,7 @@
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>260.4860521797837</v>
+        <v>264.608940044609</v>
       </c>
     </row>
     <row r="54">
@@ -1459,7 +1459,7 @@
         <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>201.222817379974</v>
+        <v>203.584107702557</v>
       </c>
     </row>
     <row r="55">
@@ -1478,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>109.4489110605718</v>
+        <v>109.9489947007933</v>
       </c>
     </row>
     <row r="56">
@@ -1497,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>1361.353282001508</v>
+        <v>1361.272995263156</v>
       </c>
     </row>
     <row r="57">
@@ -1516,7 +1516,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>2337.246941142933</v>
+        <v>2337.091310129917</v>
       </c>
     </row>
     <row r="58">
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>1442.679543871257</v>
+        <v>1443.415783311047</v>
       </c>
     </row>
     <row r="60">
@@ -1573,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>1726.689669204382</v>
+        <v>1727.988317652807</v>
       </c>
     </row>
     <row r="61">
@@ -1592,7 +1592,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>1456.208951350724</v>
+        <v>1456.150537634408</v>
       </c>
     </row>
     <row r="62">
@@ -1611,7 +1611,7 @@
         <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>1914.154082176396</v>
+        <v>1915.522063853632</v>
       </c>
     </row>
     <row r="63">
@@ -1630,7 +1630,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>1634.410402983342</v>
+        <v>1634.292459434954</v>
       </c>
     </row>
     <row r="64">
@@ -1649,7 +1649,7 @@
         <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>2364.59429982047</v>
+        <v>2365.393738810654</v>
       </c>
     </row>
     <row r="65">
@@ -1668,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>1035.576243936267</v>
+        <v>1034.874489011364</v>
       </c>
     </row>
     <row r="66">
@@ -1687,7 +1687,7 @@
         <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>2645.330918079531</v>
+        <v>2646.113609068045</v>
       </c>
     </row>
     <row r="67">
@@ -1706,7 +1706,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>235.668279535922</v>
+        <v>239.7911674007455</v>
       </c>
     </row>
     <row r="68">
@@ -1725,7 +1725,7 @@
         <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>176.6893355892753</v>
+        <v>179.0506259118574</v>
       </c>
     </row>
     <row r="69">
@@ -1744,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>85.19016897081383</v>
+        <v>85.69025261103525</v>
       </c>
     </row>
     <row r="70">
@@ -1763,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>1336.819800210808</v>
+        <v>1336.739513472457</v>
       </c>
     </row>
     <row r="71">
@@ -1782,7 +1782,7 @@
         <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>2312.134759950746</v>
+        <v>2311.979128937731</v>
       </c>
     </row>
     <row r="72">
@@ -1801,7 +1801,7 @@
         <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>1997.247296500001</v>
+        <v>1997.2472965</v>
       </c>
     </row>
     <row r="73">
@@ -1820,7 +1820,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>1415.16395990804</v>
+        <v>1415.900199347831</v>
       </c>
     </row>
     <row r="74">
@@ -1839,7 +1839,7 @@
         <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>1699.560017173636</v>
+        <v>1700.858665622061</v>
       </c>
     </row>
     <row r="75">
@@ -1858,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>1429.449434697331</v>
+        <v>1429.391020981017</v>
       </c>
     </row>
     <row r="76">
@@ -1877,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="E76" t="n">
-        <v>1887.74995336497</v>
+        <v>1889.117935042206</v>
       </c>
     </row>
     <row r="77">
@@ -1896,7 +1896,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>1608.347868490405</v>
+        <v>1608.229924942018</v>
       </c>
     </row>
     <row r="78">
@@ -1915,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>2338.860435911033</v>
+        <v>2339.659874901217</v>
       </c>
     </row>
     <row r="79">
@@ -1934,7 +1934,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>1010.464062744081</v>
+        <v>1009.762307819178</v>
       </c>
     </row>
     <row r="80">
@@ -1953,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="E80" t="n">
-        <v>2620.513145435669</v>
+        <v>2621.295836424182</v>
       </c>
     </row>
     <row r="81">
@@ -1972,7 +1972,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>210.8505068920604</v>
+        <v>214.9733947568839</v>
       </c>
     </row>
     <row r="82">
@@ -1991,7 +1991,7 @@
         <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>152.1558537985766</v>
+        <v>154.5171441211578</v>
       </c>
     </row>
     <row r="83">
@@ -2010,7 +2010,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>60.93142688105581</v>
+        <v>61.43151052127723</v>
       </c>
     </row>
     <row r="84">
@@ -2029,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="E84" t="n">
-        <v>1312.286318420109</v>
+        <v>1312.206031681757</v>
       </c>
     </row>
     <row r="85">
@@ -2048,7 +2048,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>2287.02257875856</v>
+        <v>2286.866947745543</v>
       </c>
     </row>
     <row r="86">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>1387.648375944825</v>
+        <v>1388.384615384614</v>
       </c>
     </row>
     <row r="88">
@@ -2105,7 +2105,7 @@
         <v>1</v>
       </c>
       <c r="E88" t="n">
-        <v>1672.430365142892</v>
+        <v>1673.799563170611</v>
       </c>
     </row>
     <row r="89">
@@ -2124,7 +2124,7 @@
         <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>1402.68991804394</v>
+        <v>1402.631504327625</v>
       </c>
     </row>
     <row r="90">
@@ -2143,7 +2143,7 @@
         <v>1</v>
       </c>
       <c r="E90" t="n">
-        <v>1861.345824553544</v>
+        <v>1862.713806230781</v>
       </c>
     </row>
     <row r="91">
@@ -2162,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>1582.285333997469</v>
+        <v>1582.167390449082</v>
       </c>
     </row>
     <row r="92">
@@ -2181,7 +2181,7 @@
         <v>1</v>
       </c>
       <c r="E92" t="n">
-        <v>2313.126572001599</v>
+        <v>2313.926010991781</v>
       </c>
     </row>
     <row r="93">
@@ -2200,7 +2200,7 @@
         <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>985.3518815518937</v>
+        <v>984.6501266269906</v>
       </c>
     </row>
     <row r="94">
@@ -2219,7 +2219,7 @@
         <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>2595.695372791807</v>
+        <v>2596.47806378032</v>
       </c>
     </row>
     <row r="95">
@@ -2238,7 +2238,7 @@
         <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>186.0327342481969</v>
+        <v>190.1556221130213</v>
       </c>
     </row>
     <row r="96">
@@ -2257,7 +2257,7 @@
         <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>127.622372007876</v>
+        <v>129.9836623304582</v>
       </c>
     </row>
     <row r="97">
@@ -2276,7 +2276,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>36.6726847912978</v>
+        <v>37.17276843151922</v>
       </c>
     </row>
     <row r="98">
@@ -2295,7 +2295,7 @@
         <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>1287.752836629408</v>
+        <v>1287.672549891058</v>
       </c>
     </row>
     <row r="99">
@@ -2314,7 +2314,7 @@
         <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>2261.910397566373</v>
+        <v>2261.754766553357</v>
       </c>
     </row>
     <row r="100">
@@ -2333,7 +2333,7 @@
         <v>1</v>
       </c>
       <c r="E100" t="n">
-        <v>1941.410358499998</v>
+        <v>1941.4103585</v>
       </c>
     </row>
     <row r="101">
@@ -2352,7 +2352,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>1360.243903092719</v>
+        <v>1360.842393656602</v>
       </c>
     </row>
     <row r="102">
@@ -2371,7 +2371,7 @@
         <v>1</v>
       </c>
       <c r="E102" t="n">
-        <v>1645.429745370212</v>
+        <v>1646.615819145917</v>
       </c>
     </row>
     <row r="103">
@@ -2390,7 +2390,7 @@
         <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>1376.105746295466</v>
+        <v>1375.915925045799</v>
       </c>
     </row>
     <row r="104">
@@ -2409,7 +2409,7 @@
         <v>1</v>
       </c>
       <c r="E104" t="n">
-        <v>1835.220481990626</v>
+        <v>1836.327668423598</v>
       </c>
     </row>
     <row r="105">
@@ -2428,7 +2428,7 @@
         <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>1556.269394486611</v>
+        <v>1556.081558465106</v>
       </c>
     </row>
     <row r="106">
@@ -2447,7 +2447,7 @@
         <v>1</v>
       </c>
       <c r="E106" t="n">
-        <v>2287.258696926752</v>
+        <v>2288.131663211377</v>
       </c>
     </row>
     <row r="107">
@@ -2466,7 +2466,7 @@
         <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>957.8735452715409</v>
+        <v>959.5379454348013</v>
       </c>
     </row>
     <row r="108">
@@ -2485,7 +2485,7 @@
         <v>1</v>
       </c>
       <c r="E108" t="n">
-        <v>2948.104326226566</v>
+        <v>2571.701648688275</v>
       </c>
     </row>
     <row r="109">
@@ -2504,7 +2504,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>163.513095390962</v>
+        <v>165.3378494691588</v>
       </c>
     </row>
     <row r="110">
@@ -2523,7 +2523,7 @@
         <v>1</v>
       </c>
       <c r="E110" t="n">
-        <v>108.1386654369526</v>
+        <v>105.4501805397558</v>
       </c>
     </row>
     <row r="111">
@@ -2542,7 +2542,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>14.23759861551934</v>
+        <v>12.9140263417608</v>
       </c>
     </row>
     <row r="112">
@@ -2561,7 +2561,7 @@
         <v>1</v>
       </c>
       <c r="E112" t="n">
-        <v>1263.144086021506</v>
+        <v>1263.13906810036</v>
       </c>
     </row>
     <row r="113">
@@ -2580,7 +2580,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>2236.731012073112</v>
+        <v>2236.620183927477</v>
       </c>
     </row>
     <row r="114">
@@ -2599,7 +2599,7 @@
         <v>1</v>
       </c>
       <c r="E114" t="n">
-        <v>1237.755407000001</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="115">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>1332.728319129503</v>
+        <v>1333.326809693385</v>
       </c>
     </row>
     <row r="116">
@@ -2637,7 +2637,7 @@
         <v>1</v>
       </c>
       <c r="E116" t="n">
-        <v>1618.300093339467</v>
+        <v>1619.486167115173</v>
       </c>
     </row>
     <row r="117">
@@ -2656,7 +2656,7 @@
         <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>1349.346229642075</v>
+        <v>1349.156408392407</v>
       </c>
     </row>
     <row r="118">
@@ -2675,7 +2675,7 @@
         <v>1</v>
       </c>
       <c r="E118" t="n">
-        <v>1808.816353179201</v>
+        <v>1809.923539612171</v>
       </c>
     </row>
     <row r="119">
@@ -2694,7 +2694,7 @@
         <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>1530.206859993675</v>
+        <v>1530.019023972171</v>
       </c>
     </row>
     <row r="120">
@@ -2713,7 +2713,7 @@
         <v>1</v>
       </c>
       <c r="E120" t="n">
-        <v>2261.524833017316</v>
+        <v>2262.397799301941</v>
       </c>
     </row>
     <row r="121">
@@ -2732,7 +2732,7 @@
         <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>932.7613640793543</v>
+        <v>934.4257642426146</v>
       </c>
     </row>
     <row r="122">
@@ -2751,7 +2751,7 @@
         <v>1</v>
       </c>
       <c r="E122" t="n">
-        <v>2520.917956894131</v>
+        <v>2546.883876044412</v>
       </c>
     </row>
     <row r="123">
@@ -2770,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="E123" t="n">
-        <v>78.7741935483873</v>
+        <v>140.5200768252971</v>
       </c>
     </row>
     <row r="124">
@@ -2789,7 +2789,7 @@
         <v>1</v>
       </c>
       <c r="E124" t="n">
-        <v>78.83167429895184</v>
+        <v>80.91669874905529</v>
       </c>
     </row>
     <row r="125">
@@ -2827,7 +2827,7 @@
         <v>1</v>
       </c>
       <c r="E126" t="n">
-        <v>1238.610604230806</v>
+        <v>1238.605586309659</v>
       </c>
     </row>
     <row r="127">
@@ -2846,7 +2846,7 @@
         <v>1</v>
       </c>
       <c r="E127" t="n">
-        <v>2211.618830880924</v>
+        <v>2211.508002735291</v>
       </c>
     </row>
     <row r="128">
@@ -2865,7 +2865,7 @@
         <v>1</v>
       </c>
       <c r="E128" t="n">
-        <v>1209.836938</v>
+        <v>1210.755407</v>
       </c>
     </row>
     <row r="129">
@@ -2884,7 +2884,7 @@
         <v>1</v>
       </c>
       <c r="E129" t="n">
-        <v>1305.212735166287</v>
+        <v>1305.811225730169</v>
       </c>
     </row>
     <row r="130">
@@ -2903,7 +2903,7 @@
         <v>1</v>
       </c>
       <c r="E130" t="n">
-        <v>1591.170441308722</v>
+        <v>1592.356515084427</v>
       </c>
     </row>
     <row r="131">
@@ -2922,7 +2922,7 @@
         <v>1</v>
       </c>
       <c r="E131" t="n">
-        <v>1322.586712988682</v>
+        <v>1322.396891739015</v>
       </c>
     </row>
     <row r="132">
@@ -2941,7 +2941,7 @@
         <v>1</v>
       </c>
       <c r="E132" t="n">
-        <v>1782.412224367776</v>
+        <v>1783.519410800747</v>
       </c>
     </row>
     <row r="133">
@@ -2960,7 +2960,7 @@
         <v>1</v>
       </c>
       <c r="E133" t="n">
-        <v>1504.144325500739</v>
+        <v>1503.956489479234</v>
       </c>
     </row>
     <row r="134">
@@ -2979,7 +2979,7 @@
         <v>1</v>
       </c>
       <c r="E134" t="n">
-        <v>2235.790969107876</v>
+        <v>2236.663935392504</v>
       </c>
     </row>
     <row r="135">
@@ -2998,7 +2998,7 @@
         <v>1</v>
       </c>
       <c r="E135" t="n">
-        <v>907.6824269005019</v>
+        <v>909.3135830504298</v>
       </c>
     </row>
     <row r="136">
@@ -3017,7 +3017,7 @@
         <v>1</v>
       </c>
       <c r="E136" t="n">
-        <v>2496.100184250268</v>
+        <v>2522.066103400551</v>
       </c>
     </row>
     <row r="137">
@@ -3036,7 +3036,7 @@
         <v>1</v>
       </c>
       <c r="E137" t="n">
-        <v>113.8775501032378</v>
+        <v>115.7023041814364</v>
       </c>
     </row>
     <row r="138">
@@ -3055,7 +3055,7 @@
         <v>1</v>
       </c>
       <c r="E138" t="n">
-        <v>54.29819250825312</v>
+        <v>56.38321695835657</v>
       </c>
     </row>
     <row r="139">
@@ -3093,7 +3093,7 @@
         <v>1</v>
       </c>
       <c r="E140" t="n">
-        <v>1214.077122440107</v>
+        <v>1214.072104518959</v>
       </c>
     </row>
     <row r="141">
@@ -3112,7 +3112,7 @@
         <v>1</v>
       </c>
       <c r="E141" t="n">
-        <v>2186.506649688738</v>
+        <v>2186.395821543104</v>
       </c>
     </row>
     <row r="142">
@@ -3131,7 +3131,7 @@
         <v>1</v>
       </c>
       <c r="E142" t="n">
-        <v>1181.918469</v>
+        <v>1182.836938</v>
       </c>
     </row>
     <row r="143">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="E143" t="n">
-        <v>1277.69715120307</v>
+        <v>1278.331167926432</v>
       </c>
     </row>
     <row r="144">
@@ -3169,7 +3169,7 @@
         <v>1</v>
       </c>
       <c r="E144" t="n">
-        <v>1564.040789277976</v>
+        <v>1565.308001044606</v>
       </c>
     </row>
     <row r="145">
@@ -3188,7 +3188,7 @@
         <v>1</v>
       </c>
       <c r="E145" t="n">
-        <v>1295.827196335292</v>
+        <v>1295.637375085623</v>
       </c>
     </row>
     <row r="146">
@@ -3207,7 +3207,7 @@
         <v>1</v>
       </c>
       <c r="E146" t="n">
-        <v>1756.00809555635</v>
+        <v>1757.11528198932</v>
       </c>
     </row>
     <row r="147">
@@ -3226,7 +3226,7 @@
         <v>1</v>
       </c>
       <c r="E147" t="n">
-        <v>1478.081791007802</v>
+        <v>1477.893954986298</v>
       </c>
     </row>
     <row r="148">
@@ -3245,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="E148" t="n">
-        <v>2210.147600330066</v>
+        <v>2210.930071483068</v>
       </c>
     </row>
     <row r="149">
@@ -3264,7 +3264,7 @@
         <v>1</v>
       </c>
       <c r="E149" t="n">
-        <v>882.5702457083171</v>
+        <v>884.2014018582413</v>
       </c>
     </row>
     <row r="150">
@@ -3283,7 +3283,7 @@
         <v>1</v>
       </c>
       <c r="E150" t="n">
-        <v>2471.282411606407</v>
+        <v>2497.248330756689</v>
       </c>
     </row>
     <row r="151">
@@ -3302,7 +3302,7 @@
         <v>1</v>
       </c>
       <c r="E151" t="n">
-        <v>102.3764055027787</v>
+        <v>90.88453153757291</v>
       </c>
     </row>
     <row r="152">
@@ -3321,7 +3321,7 @@
         <v>1</v>
       </c>
       <c r="E152" t="n">
-        <v>29.76471071755441</v>
+        <v>31.84973516765604</v>
       </c>
     </row>
     <row r="153">
@@ -3359,7 +3359,7 @@
         <v>1</v>
       </c>
       <c r="E154" t="n">
-        <v>1189.543640649408</v>
+        <v>1189.538622728261</v>
       </c>
     </row>
     <row r="155">
@@ -3378,7 +3378,7 @@
         <v>1</v>
       </c>
       <c r="E155" t="n">
-        <v>2161.394468496551</v>
+        <v>2161.283640350917</v>
       </c>
     </row>
     <row r="156">
@@ -3397,7 +3397,7 @@
         <v>1</v>
       </c>
       <c r="E156" t="n">
-        <v>1153.999999999999</v>
+        <v>1154.918469</v>
       </c>
     </row>
     <row r="157">
@@ -3416,7 +3416,7 @@
         <v>1</v>
       </c>
       <c r="E157" t="n">
-        <v>1250.181567239854</v>
+        <v>1250.815583963216</v>
       </c>
     </row>
     <row r="158">
@@ -3435,7 +3435,7 @@
         <v>1</v>
       </c>
       <c r="E158" t="n">
-        <v>1536.911137247232</v>
+        <v>1538.17834901386</v>
       </c>
     </row>
     <row r="159">
@@ -3454,7 +3454,7 @@
         <v>1</v>
       </c>
       <c r="E159" t="n">
-        <v>1269.137822842825</v>
+        <v>1268.877858432232</v>
       </c>
     </row>
     <row r="160">
@@ -3473,7 +3473,7 @@
         <v>1</v>
       </c>
       <c r="E160" t="n">
-        <v>1729.603966744924</v>
+        <v>1730.711153177895</v>
       </c>
     </row>
     <row r="161">
@@ -3492,7 +3492,7 @@
         <v>1</v>
       </c>
       <c r="E161" t="n">
-        <v>1452.019256514865</v>
+        <v>1451.831420493361</v>
       </c>
     </row>
     <row r="162">
@@ -3511,7 +3511,7 @@
         <v>1</v>
       </c>
       <c r="E162" t="n">
-        <v>2184.41373642063</v>
+        <v>2185.196207573632</v>
       </c>
     </row>
     <row r="163">
@@ -3530,7 +3530,7 @@
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>857.4580645161286</v>
+        <v>859.0892206660546</v>
       </c>
     </row>
     <row r="164">
@@ -3549,7 +3549,7 @@
         <v>1</v>
       </c>
       <c r="E164" t="n">
-        <v>2446.464638962545</v>
+        <v>2472.430558112826</v>
       </c>
     </row>
     <row r="165">
@@ -3568,7 +3568,7 @@
         <v>1</v>
       </c>
       <c r="E165" t="n">
-        <v>77.5586328589161</v>
+        <v>66.06675889370945</v>
       </c>
     </row>
     <row r="166">
@@ -3587,7 +3587,7 @@
         <v>1</v>
       </c>
       <c r="E166" t="n">
-        <v>5.231228926853518</v>
+        <v>7.316253376957107</v>
       </c>
     </row>
     <row r="167">
@@ -3625,7 +3625,7 @@
         <v>1</v>
       </c>
       <c r="E168" t="n">
-        <v>1165.010158858708</v>
+        <v>1165.005140937561</v>
       </c>
     </row>
     <row r="169">
@@ -3644,7 +3644,7 @@
         <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>2136.282287304363</v>
+        <v>2136.171459158731</v>
       </c>
     </row>
     <row r="170">
@@ -3663,7 +3663,7 @@
         <v>1</v>
       </c>
       <c r="E170" t="n">
-        <v>1126.081531</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="171">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="E171" t="n">
-        <v>1222.665983276637</v>
+        <v>1223.3</v>
       </c>
     </row>
     <row r="172">
@@ -3701,7 +3701,7 @@
         <v>1</v>
       </c>
       <c r="E172" t="n">
-        <v>1509.781485216487</v>
+        <v>1511.048696983115</v>
       </c>
     </row>
     <row r="173">
@@ -3720,7 +3720,7 @@
         <v>1</v>
       </c>
       <c r="E173" t="n">
-        <v>1242.378306189434</v>
+        <v>1242.189624180273</v>
       </c>
     </row>
     <row r="174">
@@ -3739,7 +3739,7 @@
         <v>1</v>
       </c>
       <c r="E174" t="n">
-        <v>1703.1998379335</v>
+        <v>1704.30702436647</v>
       </c>
     </row>
     <row r="175">
@@ -3758,7 +3758,7 @@
         <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>1425.95672202193</v>
+        <v>1425.768886000426</v>
       </c>
     </row>
     <row r="176">
@@ -3777,7 +3777,7 @@
         <v>1</v>
       </c>
       <c r="E176" t="n">
-        <v>2158.679872511193</v>
+        <v>2159.462343664196</v>
       </c>
     </row>
     <row r="177">
@@ -3796,7 +3796,7 @@
         <v>1</v>
       </c>
       <c r="E177" t="n">
-        <v>832.3458833239429</v>
+        <v>833.977039473868</v>
       </c>
     </row>
     <row r="178">
@@ -3815,7 +3815,7 @@
         <v>1</v>
       </c>
       <c r="E178" t="n">
-        <v>2421.646866318682</v>
+        <v>2447.612785468964</v>
       </c>
     </row>
     <row r="179">
@@ -3834,7 +3834,7 @@
         <v>1</v>
       </c>
       <c r="E179" t="n">
-        <v>52.74086021505354</v>
+        <v>41.24898624984871</v>
       </c>
     </row>
     <row r="180">
@@ -3891,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="E182" t="n">
-        <v>1140.476677068007</v>
+        <v>1140.471659146861</v>
       </c>
     </row>
     <row r="183">
@@ -3910,7 +3910,7 @@
         <v>1</v>
       </c>
       <c r="E183" t="n">
-        <v>2111.170106112178</v>
+        <v>2111.059277966544</v>
       </c>
     </row>
     <row r="184">
@@ -3929,7 +3929,7 @@
         <v>1</v>
       </c>
       <c r="E184" t="n">
-        <v>1098.163062</v>
+        <v>1099.081531</v>
       </c>
     </row>
     <row r="185">
@@ -3948,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="E185" t="n">
-        <v>1195.150399313422</v>
+        <v>1195.784416036784</v>
       </c>
     </row>
     <row r="186">
@@ -3967,7 +3967,7 @@
         <v>1</v>
       </c>
       <c r="E186" t="n">
-        <v>1482.651833185741</v>
+        <v>1483.91904495237</v>
       </c>
     </row>
     <row r="187">
@@ -3986,7 +3986,7 @@
         <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>1215.670080907341</v>
+        <v>1215.430107526882</v>
       </c>
     </row>
     <row r="188">
@@ -4005,7 +4005,7 @@
         <v>1</v>
       </c>
       <c r="E188" t="n">
-        <v>1676.795709122073</v>
+        <v>1677.902895555043</v>
       </c>
     </row>
     <row r="189">
@@ -4024,7 +4024,7 @@
         <v>1</v>
       </c>
       <c r="E189" t="n">
-        <v>1399.894187528994</v>
+        <v>1399.706351507491</v>
       </c>
     </row>
     <row r="190">
@@ -4043,7 +4043,7 @@
         <v>1</v>
       </c>
       <c r="E190" t="n">
-        <v>2132.946008601758</v>
+        <v>2133.728479754759</v>
       </c>
     </row>
     <row r="191">
@@ -4062,7 +4062,7 @@
         <v>1</v>
       </c>
       <c r="E191" t="n">
-        <v>807.2337021317547</v>
+        <v>808.8648582816813</v>
       </c>
     </row>
     <row r="192">
@@ -4081,7 +4081,7 @@
         <v>1</v>
       </c>
       <c r="E192" t="n">
-        <v>2396.829093674821</v>
+        <v>2422.795012825103</v>
       </c>
     </row>
     <row r="193">
@@ -4100,7 +4100,7 @@
         <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>27.92308757119099</v>
+        <v>16.43121360598707</v>
       </c>
     </row>
     <row r="194">
@@ -4157,7 +4157,7 @@
         <v>1</v>
       </c>
       <c r="E196" t="n">
-        <v>1115.943195277308</v>
+        <v>1115.938177356162</v>
       </c>
     </row>
     <row r="197">
@@ -4176,7 +4176,7 @@
         <v>1</v>
       </c>
       <c r="E197" t="n">
-        <v>2086.05792491999</v>
+        <v>2085.947096774357</v>
       </c>
     </row>
     <row r="198">
@@ -4195,7 +4195,7 @@
         <v>1</v>
       </c>
       <c r="E198" t="n">
-        <v>1067.581531</v>
+        <v>1071.163062000001</v>
       </c>
     </row>
     <row r="199">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="E199" t="n">
-        <v>1164.754046737197</v>
+        <v>1168.268832073568</v>
       </c>
     </row>
     <row r="200">
@@ -4233,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="E200" t="n">
-        <v>1450.006052122736</v>
+        <v>1456.789392921624</v>
       </c>
     </row>
     <row r="201">
@@ -4252,7 +4252,7 @@
         <v>1</v>
       </c>
       <c r="E201" t="n">
-        <v>1189.689879163349</v>
+        <v>1188.670590873492</v>
       </c>
     </row>
     <row r="202">
@@ -4271,7 +4271,7 @@
         <v>1</v>
       </c>
       <c r="E202" t="n">
-        <v>1645.258064516129</v>
+        <v>1651.645161290323</v>
       </c>
     </row>
     <row r="203">
@@ -4290,7 +4290,7 @@
         <v>1</v>
       </c>
       <c r="E203" t="n">
-        <v>1374.355846584449</v>
+        <v>1373.748655724229</v>
       </c>
     </row>
     <row r="204">
@@ -4309,7 +4309,7 @@
         <v>1</v>
       </c>
       <c r="E204" t="n">
-        <v>2100.437951143935</v>
+        <v>2108.048379286184</v>
       </c>
     </row>
     <row r="205">
@@ -4328,7 +4328,7 @@
         <v>1</v>
       </c>
       <c r="E205" t="n">
-        <v>784.4516129032254</v>
+        <v>783.7526770894965</v>
       </c>
     </row>
     <row r="206">
@@ -4347,7 +4347,7 @@
         <v>1</v>
       </c>
       <c r="E206" t="n">
-        <v>2390.613471568593</v>
+        <v>2398.040886568981</v>
       </c>
     </row>
     <row r="207">
@@ -4366,7 +4366,7 @@
         <v>1</v>
       </c>
       <c r="E207" t="n">
-        <v>3.105314927330255</v>
+        <v>9.094947017729282e-13</v>
       </c>
     </row>
     <row r="208">
@@ -4423,7 +4423,7 @@
         <v>1</v>
       </c>
       <c r="E210" t="n">
-        <v>1092.455468606395</v>
+        <v>1091.404695565458</v>
       </c>
     </row>
     <row r="211">
@@ -4442,7 +4442,7 @@
         <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>2061.698431899848</v>
+        <v>2060.969324184323</v>
       </c>
     </row>
     <row r="212">
@@ -4461,7 +4461,7 @@
         <v>1</v>
       </c>
       <c r="E212" t="n">
-        <v>1039.663061999999</v>
+        <v>1043.244592999999</v>
       </c>
     </row>
     <row r="213">
@@ -4480,7 +4480,7 @@
         <v>1</v>
       </c>
       <c r="E213" t="n">
-        <v>1137.5</v>
+        <v>1140.999999999999</v>
       </c>
     </row>
     <row r="214">
@@ -4499,7 +4499,7 @@
         <v>1</v>
       </c>
       <c r="E214" t="n">
-        <v>1422.876400091992</v>
+        <v>1429.659740890877</v>
       </c>
     </row>
     <row r="215">
@@ -4518,7 +4518,7 @@
         <v>1</v>
       </c>
       <c r="E215" t="n">
-        <v>1162.930362509957</v>
+        <v>1162.032258064516</v>
       </c>
     </row>
     <row r="216">
@@ -4537,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="E216" t="n">
-        <v>1619.129032258065</v>
+        <v>1625.806451612903</v>
       </c>
     </row>
     <row r="217">
@@ -4556,7 +4556,7 @@
         <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>1348.293312091514</v>
+        <v>1347.686121231293</v>
       </c>
     </row>
     <row r="218">
@@ -4575,7 +4575,7 @@
         <v>1</v>
       </c>
       <c r="E218" t="n">
-        <v>2074.704087234498</v>
+        <v>2082.314515376748</v>
       </c>
     </row>
     <row r="219">
@@ -4594,7 +4594,7 @@
         <v>1</v>
       </c>
       <c r="E219" t="n">
-        <v>759.3870967741932</v>
+        <v>758.6404958973092</v>
       </c>
     </row>
     <row r="220">
@@ -4613,7 +4613,7 @@
         <v>1</v>
       </c>
       <c r="E220" t="n">
-        <v>2365.795698924732</v>
+        <v>2373.223113925118</v>
       </c>
     </row>
     <row r="221">
@@ -4689,7 +4689,7 @@
         <v>1</v>
       </c>
       <c r="E224" t="n">
-        <v>1067.921986815696</v>
+        <v>1067.83870967742</v>
       </c>
     </row>
     <row r="225">
@@ -4708,7 +4708,7 @@
         <v>1</v>
       </c>
       <c r="E225" t="n">
-        <v>2036.586250707662</v>
+        <v>2035.857142992137</v>
       </c>
     </row>
     <row r="226">
@@ -4727,7 +4727,7 @@
         <v>1</v>
       </c>
       <c r="E226" t="n">
-        <v>1015</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="227">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="E227" t="n">
-        <v>1112.5</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="228">
@@ -4765,7 +4765,7 @@
         <v>1</v>
       </c>
       <c r="E228" t="n">
-        <v>1398.193548387097</v>
+        <v>1404.58064516129</v>
       </c>
     </row>
     <row r="229">
@@ -4784,7 +4784,7 @@
         <v>1</v>
       </c>
       <c r="E229" t="n">
-        <v>1139.806451612902</v>
+        <v>1138.967741935484</v>
       </c>
     </row>
     <row r="230">
@@ -4803,7 +4803,7 @@
         <v>1</v>
       </c>
       <c r="E230" t="n">
-        <v>1594.741935483871</v>
+        <v>1600.83870967742</v>
       </c>
     </row>
     <row r="231">
@@ -4822,7 +4822,7 @@
         <v>1</v>
       </c>
       <c r="E231" t="n">
-        <v>1325.790322580644</v>
+        <v>1325.16129032258</v>
       </c>
     </row>
     <row r="232">
@@ -4841,7 +4841,7 @@
         <v>1</v>
       </c>
       <c r="E232" t="n">
-        <v>2048.970223325061</v>
+        <v>2056.580651467311</v>
       </c>
     </row>
     <row r="233">
@@ -4860,7 +4860,7 @@
         <v>1</v>
       </c>
       <c r="E233" t="n">
-        <v>746.9032258064517</v>
+        <v>744.2903225806449</v>
       </c>
     </row>
     <row r="234">
@@ -4879,7 +4879,7 @@
         <v>1</v>
       </c>
       <c r="E234" t="n">
-        <v>2340.97792628087</v>
+        <v>2348.405341281258</v>
       </c>
     </row>
     <row r="235">
@@ -4955,7 +4955,7 @@
         <v>1</v>
       </c>
       <c r="E238" t="n">
-        <v>1052.709677419356</v>
+        <v>1052.408602150537</v>
       </c>
     </row>
     <row r="239">
@@ -4974,7 +4974,7 @@
         <v>1</v>
       </c>
       <c r="E239" t="n">
-        <v>2011.474069515475</v>
+        <v>2010.744961799949</v>
       </c>
     </row>
     <row r="240">
@@ -4993,7 +4993,7 @@
         <v>1</v>
       </c>
       <c r="E240" t="n">
-        <v>997</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="241">
@@ -5012,7 +5012,7 @@
         <v>1</v>
       </c>
       <c r="E241" t="n">
-        <v>1095.5</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="242">
@@ -5031,7 +5031,7 @@
         <v>1</v>
       </c>
       <c r="E242" t="n">
-        <v>1377.290322580645</v>
+        <v>1383.677419354839</v>
       </c>
     </row>
     <row r="243">
@@ -5050,7 +5050,7 @@
         <v>1</v>
       </c>
       <c r="E243" t="n">
-        <v>1128.064516129032</v>
+        <v>1127.225806451613</v>
       </c>
     </row>
     <row r="244">
@@ -5069,7 +5069,7 @@
         <v>1</v>
       </c>
       <c r="E244" t="n">
-        <v>1574.41935483871</v>
+        <v>1580.516129032258</v>
       </c>
     </row>
     <row r="245">
@@ -5088,7 +5088,7 @@
         <v>1</v>
       </c>
       <c r="E245" t="n">
-        <v>1314.048387096775</v>
+        <v>1313.419354838709</v>
       </c>
     </row>
     <row r="246">
@@ -5107,7 +5107,7 @@
         <v>1</v>
       </c>
       <c r="E246" t="n">
-        <v>2023.236359415627</v>
+        <v>2030.846787557877</v>
       </c>
     </row>
     <row r="247">
@@ -5126,7 +5126,7 @@
         <v>1</v>
       </c>
       <c r="E247" t="n">
-        <v>757.1612903225805</v>
+        <v>754.4516129032254</v>
       </c>
     </row>
     <row r="248">
@@ -5145,7 +5145,7 @@
         <v>1</v>
       </c>
       <c r="E248" t="n">
-        <v>2316.160153637008</v>
+        <v>2323.587568637395</v>
       </c>
     </row>
     <row r="249">
@@ -5221,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="E252" t="n">
-        <v>1066.408602150537</v>
+        <v>1065.956989247312</v>
       </c>
     </row>
     <row r="253">
@@ -5240,7 +5240,7 @@
         <v>1</v>
       </c>
       <c r="E253" t="n">
-        <v>1986.361888323288</v>
+        <v>1985.632780607763</v>
       </c>
     </row>
     <row r="254">
@@ -5259,7 +5259,7 @@
         <v>1</v>
       </c>
       <c r="E254" t="n">
-        <v>979</v>
+        <v>983</v>
       </c>
     </row>
     <row r="255">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="E255" t="n">
-        <v>1078</v>
+        <v>1081.499999999999</v>
       </c>
     </row>
     <row r="256">
@@ -5297,7 +5297,7 @@
         <v>1</v>
       </c>
       <c r="E256" t="n">
-        <v>1356.387096774194</v>
+        <v>1362.774193548386</v>
       </c>
     </row>
     <row r="257">
@@ -5316,7 +5316,7 @@
         <v>1</v>
       </c>
       <c r="E257" t="n">
-        <v>1115.903225806452</v>
+        <v>1115.483870967741</v>
       </c>
     </row>
     <row r="258">
@@ -5335,7 +5335,7 @@
         <v>1</v>
       </c>
       <c r="E258" t="n">
-        <v>1554.387096774194</v>
+        <v>1560.483870967742</v>
       </c>
     </row>
     <row r="259">
@@ -5354,7 +5354,7 @@
         <v>1</v>
       </c>
       <c r="E259" t="n">
-        <v>1302.935483870968</v>
+        <v>1301.887096774193</v>
       </c>
     </row>
     <row r="260">
@@ -5373,7 +5373,7 @@
         <v>1</v>
       </c>
       <c r="E260" t="n">
-        <v>1997.502495506191</v>
+        <v>2005.112923648439</v>
       </c>
     </row>
     <row r="261">
@@ -5392,7 +5392,7 @@
         <v>1</v>
       </c>
       <c r="E261" t="n">
-        <v>767.4193548387093</v>
+        <v>764.6129032258068</v>
       </c>
     </row>
     <row r="262">
@@ -5411,7 +5411,7 @@
         <v>1</v>
       </c>
       <c r="E262" t="n">
-        <v>2291.342380993145</v>
+        <v>2298.769795993531</v>
       </c>
     </row>
     <row r="263">
@@ -5487,7 +5487,7 @@
         <v>1</v>
       </c>
       <c r="E266" t="n">
-        <v>1080.10752688172</v>
+        <v>1079.505376344086</v>
       </c>
     </row>
     <row r="267">
@@ -5506,7 +5506,7 @@
         <v>1</v>
       </c>
       <c r="E267" t="n">
-        <v>1961.2497071311</v>
+        <v>1960.520599415575</v>
       </c>
     </row>
     <row r="268">
@@ -5525,7 +5525,7 @@
         <v>1</v>
       </c>
       <c r="E268" t="n">
-        <v>964.0000000000009</v>
+        <v>967</v>
       </c>
     </row>
     <row r="269">
@@ -5544,7 +5544,7 @@
         <v>1</v>
       </c>
       <c r="E269" t="n">
-        <v>1063</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="270">
@@ -5563,7 +5563,7 @@
         <v>1</v>
       </c>
       <c r="E270" t="n">
-        <v>1336.064516129032</v>
+        <v>1341.870967741936</v>
       </c>
     </row>
     <row r="271">
@@ -5582,7 +5582,7 @@
         <v>1</v>
       </c>
       <c r="E271" t="n">
-        <v>1109.193548387097</v>
+        <v>1108.354838709676</v>
       </c>
     </row>
     <row r="272">
@@ -5601,7 +5601,7 @@
         <v>1</v>
       </c>
       <c r="E272" t="n">
-        <v>1534.064516129032</v>
+        <v>1541.032258064516</v>
       </c>
     </row>
     <row r="273">
@@ -5620,7 +5620,7 @@
         <v>1</v>
       </c>
       <c r="E273" t="n">
-        <v>1295.806451612903</v>
+        <v>1294.967741935484</v>
       </c>
     </row>
     <row r="274">
@@ -5639,7 +5639,7 @@
         <v>1</v>
       </c>
       <c r="E274" t="n">
-        <v>1971.768631596754</v>
+        <v>1979.379059739003</v>
       </c>
     </row>
     <row r="275">
@@ -5658,7 +5658,7 @@
         <v>1</v>
       </c>
       <c r="E275" t="n">
-        <v>777.0967741935483</v>
+        <v>774.3870967741939</v>
       </c>
     </row>
     <row r="276">
@@ -5677,7 +5677,7 @@
         <v>1</v>
       </c>
       <c r="E276" t="n">
-        <v>2266.524608349283</v>
+        <v>2273.952023349671</v>
       </c>
     </row>
     <row r="277">
@@ -5753,7 +5753,7 @@
         <v>1</v>
       </c>
       <c r="E280" t="n">
-        <v>1089.591397849463</v>
+        <v>1089.290322580645</v>
       </c>
     </row>
     <row r="281">
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="E281" t="n">
-        <v>1945.698924731182</v>
+        <v>1945.16129032258</v>
       </c>
     </row>
     <row r="282">
@@ -5791,7 +5791,7 @@
         <v>1</v>
       </c>
       <c r="E282" t="n">
-        <v>953</v>
+        <v>957</v>
       </c>
     </row>
     <row r="283">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="E283" t="n">
-        <v>1051.5</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="284">
@@ -5829,7 +5829,7 @@
         <v>1</v>
       </c>
       <c r="E284" t="n">
-        <v>1314.580645161291</v>
+        <v>1320.967741935484</v>
       </c>
     </row>
     <row r="285">
@@ -5848,7 +5848,7 @@
         <v>1</v>
       </c>
       <c r="E285" t="n">
-        <v>1111.709677419355</v>
+        <v>1110.870967741935</v>
       </c>
     </row>
     <row r="286">
@@ -5867,7 +5867,7 @@
         <v>1</v>
       </c>
       <c r="E286" t="n">
-        <v>1513.451612903225</v>
+        <v>1519.548387096774</v>
       </c>
     </row>
     <row r="287">
@@ -5886,7 +5886,7 @@
         <v>1</v>
       </c>
       <c r="E287" t="n">
-        <v>1298.532258064516</v>
+        <v>1297.483870967741</v>
       </c>
     </row>
     <row r="288">
@@ -5905,7 +5905,7 @@
         <v>1</v>
       </c>
       <c r="E288" t="n">
-        <v>1946.034767687317</v>
+        <v>1953.645195829567</v>
       </c>
     </row>
     <row r="289">
@@ -5924,7 +5924,7 @@
         <v>1</v>
       </c>
       <c r="E289" t="n">
-        <v>786.2903225806449</v>
+        <v>783.4838709677406</v>
       </c>
     </row>
     <row r="290">
@@ -5943,7 +5943,7 @@
         <v>1</v>
       </c>
       <c r="E290" t="n">
-        <v>2241.706835705421</v>
+        <v>2249.134250705808</v>
       </c>
     </row>
     <row r="291">
@@ -6019,7 +6019,7 @@
         <v>1</v>
       </c>
       <c r="E294" t="n">
-        <v>1091.096774193548</v>
+        <v>1090.645161290323</v>
       </c>
     </row>
     <row r="295">
@@ -6038,7 +6038,7 @@
         <v>1</v>
       </c>
       <c r="E295" t="n">
-        <v>1948.387096774193</v>
+        <v>1947.58064516129</v>
       </c>
     </row>
     <row r="296">
@@ -6057,7 +6057,7 @@
         <v>1</v>
       </c>
       <c r="E296" t="n">
-        <v>941</v>
+        <v>945</v>
       </c>
     </row>
     <row r="297">
@@ -6076,7 +6076,7 @@
         <v>1</v>
       </c>
       <c r="E297" t="n">
-        <v>1040.5</v>
+        <v>1043.5</v>
       </c>
     </row>
     <row r="298">
@@ -6095,7 +6095,7 @@
         <v>1</v>
       </c>
       <c r="E298" t="n">
-        <v>1293.677419354839</v>
+        <v>1300.064516129032</v>
       </c>
     </row>
     <row r="299">
@@ -6114,7 +6114,7 @@
         <v>1</v>
       </c>
       <c r="E299" t="n">
-        <v>1114.225806451612</v>
+        <v>1113.387096774195</v>
       </c>
     </row>
     <row r="300">
@@ -6133,7 +6133,7 @@
         <v>1</v>
       </c>
       <c r="E300" t="n">
-        <v>1493.129032258064</v>
+        <v>1499.516129032258</v>
       </c>
     </row>
     <row r="301">
@@ -6152,7 +6152,7 @@
         <v>1</v>
       </c>
       <c r="E301" t="n">
-        <v>1301.048387096775</v>
+        <v>1300.209677419355</v>
       </c>
     </row>
     <row r="302">
@@ -6171,7 +6171,7 @@
         <v>1</v>
       </c>
       <c r="E302" t="n">
-        <v>1920.542839261751</v>
+        <v>1927.669396436263</v>
       </c>
     </row>
     <row r="303">
@@ -6190,7 +6190,7 @@
         <v>1</v>
       </c>
       <c r="E303" t="n">
-        <v>795.3870967741932</v>
+        <v>792.5806451612907</v>
       </c>
     </row>
     <row r="304">
@@ -6209,7 +6209,7 @@
         <v>1</v>
       </c>
       <c r="E304" t="n">
-        <v>2216.88906306156</v>
+        <v>2224.304047612254</v>
       </c>
     </row>
     <row r="305">
@@ -6285,7 +6285,7 @@
         <v>1</v>
       </c>
       <c r="E308" t="n">
-        <v>1092.752688172043</v>
+        <v>1092.301075268817</v>
       </c>
     </row>
     <row r="309">
@@ -6304,7 +6304,7 @@
         <v>1</v>
       </c>
       <c r="E309" t="n">
-        <v>1951.344086021504</v>
+        <v>1950.537634408602</v>
       </c>
     </row>
     <row r="310">
@@ -6323,7 +6323,7 @@
         <v>1</v>
       </c>
       <c r="E310" t="n">
-        <v>929.9999999999991</v>
+        <v>933</v>
       </c>
     </row>
     <row r="311">
@@ -6342,7 +6342,7 @@
         <v>1</v>
       </c>
       <c r="E311" t="n">
-        <v>1029</v>
+        <v>1032.499999999999</v>
       </c>
     </row>
     <row r="312">
@@ -6361,7 +6361,7 @@
         <v>1</v>
       </c>
       <c r="E312" t="n">
-        <v>1272.774193548387</v>
+        <v>1279.16129032258</v>
       </c>
     </row>
     <row r="313">
@@ -6380,7 +6380,7 @@
         <v>1</v>
       </c>
       <c r="E313" t="n">
-        <v>1116.741935483872</v>
+        <v>1115.903225806452</v>
       </c>
     </row>
     <row r="314">
@@ -6399,7 +6399,7 @@
         <v>1</v>
       </c>
       <c r="E314" t="n">
-        <v>1473.096774193548</v>
+        <v>1479.483870967742</v>
       </c>
     </row>
     <row r="315">
@@ -6418,7 +6418,7 @@
         <v>1</v>
       </c>
       <c r="E315" t="n">
-        <v>1303.774193548387</v>
+        <v>1302.935483870968</v>
       </c>
     </row>
     <row r="316">
@@ -6437,7 +6437,7 @@
         <v>1</v>
       </c>
       <c r="E316" t="n">
-        <v>1894.808975352315</v>
+        <v>1901.935532526826</v>
       </c>
     </row>
     <row r="317">
@@ -6456,7 +6456,7 @@
         <v>1</v>
       </c>
       <c r="E317" t="n">
-        <v>804.3870967741932</v>
+        <v>801.6290322580644</v>
       </c>
     </row>
     <row r="318">
@@ -6475,7 +6475,7 @@
         <v>1</v>
       </c>
       <c r="E318" t="n">
-        <v>2192.071290417696</v>
+        <v>2199.486274968393</v>
       </c>
     </row>
     <row r="319">
@@ -6551,7 +6551,7 @@
         <v>1</v>
       </c>
       <c r="E322" t="n">
-        <v>1094.258064516129</v>
+        <v>1093.881720430108</v>
       </c>
     </row>
     <row r="323">
@@ -6570,7 +6570,7 @@
         <v>1</v>
       </c>
       <c r="E323" t="n">
-        <v>1954.032258064516</v>
+        <v>1953.360215053763</v>
       </c>
     </row>
     <row r="324">
@@ -6646,7 +6646,7 @@
         <v>1</v>
       </c>
       <c r="E327" t="n">
-        <v>1118.419354838709</v>
+        <v>1119.258064516129</v>
       </c>
     </row>
     <row r="328">
@@ -6817,7 +6817,7 @@
         <v>1</v>
       </c>
       <c r="E336" t="n">
-        <v>1095.612903225807</v>
+        <v>1095.311827956989</v>
       </c>
     </row>
     <row r="337">
@@ -6836,7 +6836,7 @@
         <v>1</v>
       </c>
       <c r="E337" t="n">
-        <v>1956.451612903224</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="338">
@@ -6893,7 +6893,7 @@
         <v>1</v>
       </c>
       <c r="E340" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="341">
@@ -6931,7 +6931,7 @@
         <v>1</v>
       </c>
       <c r="E342" t="n">
-        <v>1460.032258064516</v>
+        <v>1458.870967741936</v>
       </c>
     </row>
     <row r="343">
@@ -6950,7 +6950,7 @@
         <v>1</v>
       </c>
       <c r="E343" t="n">
-        <v>1305.66129032258</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="344">
@@ -7083,7 +7083,7 @@
         <v>1</v>
       </c>
       <c r="E350" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="351">
@@ -7102,7 +7102,7 @@
         <v>1</v>
       </c>
       <c r="E351" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="352">
@@ -7140,7 +7140,7 @@
         <v>1</v>
       </c>
       <c r="E353" t="n">
-        <v>1021.5</v>
+        <v>1022.5</v>
       </c>
     </row>
     <row r="354">
@@ -7178,7 +7178,7 @@
         <v>1</v>
       </c>
       <c r="E355" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="356">
@@ -7197,7 +7197,7 @@
         <v>1</v>
       </c>
       <c r="E356" t="n">
-        <v>1460.032258064516</v>
+        <v>1458.870967741936</v>
       </c>
     </row>
     <row r="357">
@@ -7216,7 +7216,7 @@
         <v>1</v>
       </c>
       <c r="E357" t="n">
-        <v>1304.82258064516</v>
+        <v>1305.241935483871</v>
       </c>
     </row>
     <row r="358">
@@ -7254,7 +7254,7 @@
         <v>1</v>
       </c>
       <c r="E359" t="n">
-        <v>810.3870967741932</v>
+        <v>810.4838709677415</v>
       </c>
     </row>
     <row r="360">
@@ -7273,7 +7273,7 @@
         <v>1</v>
       </c>
       <c r="E360" t="n">
-        <v>2175</v>
+        <v>2175.483870967742</v>
       </c>
     </row>
     <row r="361">
@@ -7482,7 +7482,7 @@
         <v>1</v>
       </c>
       <c r="E371" t="n">
-        <v>1305.241935483871</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="372">
@@ -7615,7 +7615,7 @@
         <v>1</v>
       </c>
       <c r="E378" t="n">
-        <v>1095.462365591398</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="379">
@@ -7634,7 +7634,7 @@
         <v>1</v>
       </c>
       <c r="E379" t="n">
-        <v>1956.182795698925</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="380">
@@ -7691,7 +7691,7 @@
         <v>1</v>
       </c>
       <c r="E382" t="n">
-        <v>1260</v>
+        <v>1258.83870967742</v>
       </c>
     </row>
     <row r="383">
@@ -7710,7 +7710,7 @@
         <v>1</v>
       </c>
       <c r="E383" t="n">
-        <v>1118.419354838709</v>
+        <v>1118.83870967742</v>
       </c>
     </row>
     <row r="384">
@@ -7729,7 +7729,7 @@
         <v>1</v>
       </c>
       <c r="E384" t="n">
-        <v>1458.870967741936</v>
+        <v>1459.451612903225</v>
       </c>
     </row>
     <row r="385">
@@ -7767,7 +7767,7 @@
         <v>1</v>
       </c>
       <c r="E386" t="n">
-        <v>1876.935483870968</v>
+        <v>1877.41935483871</v>
       </c>
     </row>
     <row r="387">
@@ -7786,7 +7786,7 @@
         <v>1</v>
       </c>
       <c r="E387" t="n">
-        <v>810.3870967741932</v>
+        <v>810.4838709677415</v>
       </c>
     </row>
     <row r="388">
@@ -7881,7 +7881,7 @@
         <v>1</v>
       </c>
       <c r="E392" t="n">
-        <v>1095.612903225807</v>
+        <v>1095.462365591398</v>
       </c>
     </row>
     <row r="393">
@@ -7900,7 +7900,7 @@
         <v>1</v>
       </c>
       <c r="E393" t="n">
-        <v>1956.451612903224</v>
+        <v>1956.182795698925</v>
       </c>
     </row>
     <row r="394">
@@ -7938,7 +7938,7 @@
         <v>1</v>
       </c>
       <c r="E395" t="n">
-        <v>1021.5</v>
+        <v>1022.5</v>
       </c>
     </row>
     <row r="396">
@@ -7976,7 +7976,7 @@
         <v>1</v>
       </c>
       <c r="E397" t="n">
-        <v>1118.83870967742</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="398">
@@ -8014,7 +8014,7 @@
         <v>1</v>
       </c>
       <c r="E399" t="n">
-        <v>1305.24193548387</v>
+        <v>1305.241935483871</v>
       </c>
     </row>
     <row r="400">
@@ -8033,7 +8033,7 @@
         <v>1</v>
       </c>
       <c r="E400" t="n">
-        <v>1877.41935483871</v>
+        <v>1876.935483870968</v>
       </c>
     </row>
     <row r="401">
@@ -8052,7 +8052,7 @@
         <v>1</v>
       </c>
       <c r="E401" t="n">
-        <v>810.4838709677415</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="402">
@@ -8223,7 +8223,7 @@
         <v>1</v>
       </c>
       <c r="E410" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="411">
@@ -8242,7 +8242,7 @@
         <v>1</v>
       </c>
       <c r="E411" t="n">
-        <v>1118.419354838709</v>
+        <v>1119.258064516129</v>
       </c>
     </row>
     <row r="412">
@@ -8261,7 +8261,7 @@
         <v>1</v>
       </c>
       <c r="E412" t="n">
-        <v>1460.032258064516</v>
+        <v>1458.870967741936</v>
       </c>
     </row>
     <row r="413">
@@ -8280,7 +8280,7 @@
         <v>1</v>
       </c>
       <c r="E413" t="n">
-        <v>1305.66129032258</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="414">
@@ -8451,7 +8451,7 @@
         <v>1</v>
       </c>
       <c r="E422" t="n">
-        <v>921.9999999999991</v>
+        <v>923</v>
       </c>
     </row>
     <row r="423">
@@ -8470,7 +8470,7 @@
         <v>1</v>
       </c>
       <c r="E423" t="n">
-        <v>1022.5</v>
+        <v>1021.5</v>
       </c>
     </row>
     <row r="424">
@@ -8489,7 +8489,7 @@
         <v>1</v>
       </c>
       <c r="E424" t="n">
-        <v>1258.83870967742</v>
+        <v>1259.41935483871</v>
       </c>
     </row>
     <row r="425">
@@ -8527,7 +8527,7 @@
         <v>1</v>
       </c>
       <c r="E426" t="n">
-        <v>1459.451612903225</v>
+        <v>1458.870967741936</v>
       </c>
     </row>
     <row r="427">
@@ -8736,7 +8736,7 @@
         <v>1</v>
       </c>
       <c r="E437" t="n">
-        <v>1022.5</v>
+        <v>1021.5</v>
       </c>
     </row>
     <row r="438">
@@ -8774,7 +8774,7 @@
         <v>1</v>
       </c>
       <c r="E439" t="n">
-        <v>1118.419354838709</v>
+        <v>1119.258064516129</v>
       </c>
     </row>
     <row r="440">
@@ -8793,7 +8793,7 @@
         <v>1</v>
       </c>
       <c r="E440" t="n">
-        <v>1458.870967741936</v>
+        <v>1460.032258064516</v>
       </c>
     </row>
     <row r="441">
@@ -8850,7 +8850,7 @@
         <v>1</v>
       </c>
       <c r="E443" t="n">
-        <v>810.4838709677415</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="444">
@@ -8869,7 +8869,7 @@
         <v>1</v>
       </c>
       <c r="E444" t="n">
-        <v>2175.483870967742</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="445">
@@ -8945,7 +8945,7 @@
         <v>1</v>
       </c>
       <c r="E448" t="n">
-        <v>1095.462365591398</v>
+        <v>1095.311827956989</v>
       </c>
     </row>
     <row r="449">
@@ -8964,7 +8964,7 @@
         <v>1</v>
       </c>
       <c r="E449" t="n">
-        <v>1956.182795698925</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="450">
@@ -9040,7 +9040,7 @@
         <v>1</v>
       </c>
       <c r="E453" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="454">
@@ -9059,7 +9059,7 @@
         <v>1</v>
       </c>
       <c r="E454" t="n">
-        <v>1460.032258064516</v>
+        <v>1458.870967741936</v>
       </c>
     </row>
     <row r="455">
@@ -9078,7 +9078,7 @@
         <v>1</v>
       </c>
       <c r="E455" t="n">
-        <v>1304.82258064516</v>
+        <v>1305.66129032258</v>
       </c>
     </row>
     <row r="456">
@@ -9097,7 +9097,7 @@
         <v>1</v>
       </c>
       <c r="E456" t="n">
-        <v>1876.935483870968</v>
+        <v>1877.903225806452</v>
       </c>
     </row>
     <row r="457">
@@ -9116,7 +9116,7 @@
         <v>1</v>
       </c>
       <c r="E457" t="n">
-        <v>810.3870967741932</v>
+        <v>810.5806451612916</v>
       </c>
     </row>
     <row r="458">
@@ -9268,7 +9268,7 @@
         <v>1</v>
       </c>
       <c r="E465" t="n">
-        <v>1021.5</v>
+        <v>1022.5</v>
       </c>
     </row>
     <row r="466">
@@ -9325,7 +9325,7 @@
         <v>1</v>
       </c>
       <c r="E468" t="n">
-        <v>1458.870967741936</v>
+        <v>1459.451612903225</v>
       </c>
     </row>
     <row r="469">
@@ -9344,7 +9344,7 @@
         <v>1</v>
       </c>
       <c r="E469" t="n">
-        <v>1304.82258064516</v>
+        <v>1305.241935483871</v>
       </c>
     </row>
     <row r="470">
@@ -9363,7 +9363,7 @@
         <v>1</v>
       </c>
       <c r="E470" t="n">
-        <v>1877.903225806452</v>
+        <v>1876.935483870968</v>
       </c>
     </row>
     <row r="471">
@@ -9382,7 +9382,7 @@
         <v>1</v>
       </c>
       <c r="E471" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="472">
@@ -9477,7 +9477,7 @@
         <v>1</v>
       </c>
       <c r="E476" t="n">
-        <v>1095.612903225807</v>
+        <v>1095.311827956989</v>
       </c>
     </row>
     <row r="477">
@@ -9496,7 +9496,7 @@
         <v>1</v>
       </c>
       <c r="E477" t="n">
-        <v>1956.451612903224</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="478">
@@ -9534,7 +9534,7 @@
         <v>1</v>
       </c>
       <c r="E479" t="n">
-        <v>1022.5</v>
+        <v>1021.5</v>
       </c>
     </row>
     <row r="480">
@@ -9591,7 +9591,7 @@
         <v>1</v>
       </c>
       <c r="E482" t="n">
-        <v>1458.870967741936</v>
+        <v>1460.032258064516</v>
       </c>
     </row>
     <row r="483">
@@ -9610,7 +9610,7 @@
         <v>1</v>
       </c>
       <c r="E483" t="n">
-        <v>1305.241935483871</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="484">
@@ -9648,7 +9648,7 @@
         <v>1</v>
       </c>
       <c r="E485" t="n">
-        <v>810.4838709677415</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="486">
@@ -9667,7 +9667,7 @@
         <v>1</v>
       </c>
       <c r="E486" t="n">
-        <v>2175.483870967742</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="487">
@@ -9743,7 +9743,7 @@
         <v>1</v>
       </c>
       <c r="E490" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="491">
@@ -9762,7 +9762,7 @@
         <v>1</v>
       </c>
       <c r="E491" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="492">
@@ -9819,7 +9819,7 @@
         <v>1</v>
       </c>
       <c r="E494" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="495">
@@ -9838,7 +9838,7 @@
         <v>1</v>
       </c>
       <c r="E495" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="496">
@@ -9857,7 +9857,7 @@
         <v>1</v>
       </c>
       <c r="E496" t="n">
-        <v>1460.032258064516</v>
+        <v>1458.870967741936</v>
       </c>
     </row>
     <row r="497">
@@ -10009,7 +10009,7 @@
         <v>1</v>
       </c>
       <c r="E504" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="505">
@@ -10028,7 +10028,7 @@
         <v>1</v>
       </c>
       <c r="E505" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="506">
@@ -10332,7 +10332,7 @@
         <v>1</v>
       </c>
       <c r="E521" t="n">
-        <v>1021.5</v>
+        <v>1022.5</v>
       </c>
     </row>
     <row r="522">
@@ -10389,7 +10389,7 @@
         <v>1</v>
       </c>
       <c r="E524" t="n">
-        <v>1460.032258064516</v>
+        <v>1459.451612903225</v>
       </c>
     </row>
     <row r="525">
@@ -10541,7 +10541,7 @@
         <v>1</v>
       </c>
       <c r="E532" t="n">
-        <v>1095.462365591398</v>
+        <v>1095.311827956989</v>
       </c>
     </row>
     <row r="533">
@@ -10560,7 +10560,7 @@
         <v>1</v>
       </c>
       <c r="E533" t="n">
-        <v>1956.182795698925</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="534">
@@ -10693,7 +10693,7 @@
         <v>1</v>
       </c>
       <c r="E540" t="n">
-        <v>1876.935483870968</v>
+        <v>1877.41935483871</v>
       </c>
     </row>
     <row r="541">
@@ -10731,7 +10731,7 @@
         <v>1</v>
       </c>
       <c r="E542" t="n">
-        <v>2175.483870967742</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="543">
@@ -10864,7 +10864,7 @@
         <v>1</v>
       </c>
       <c r="E549" t="n">
-        <v>1022.5</v>
+        <v>1021.5</v>
       </c>
     </row>
     <row r="550">
@@ -10921,7 +10921,7 @@
         <v>1</v>
       </c>
       <c r="E552" t="n">
-        <v>1459.451612903225</v>
+        <v>1460.032258064516</v>
       </c>
     </row>
     <row r="553">
@@ -10940,7 +10940,7 @@
         <v>1</v>
       </c>
       <c r="E553" t="n">
-        <v>1305.241935483871</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="554">
@@ -11073,7 +11073,7 @@
         <v>1</v>
       </c>
       <c r="E560" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="561">
@@ -11092,7 +11092,7 @@
         <v>1</v>
       </c>
       <c r="E561" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="562">
@@ -11130,7 +11130,7 @@
         <v>1</v>
       </c>
       <c r="E563" t="n">
-        <v>1021.5</v>
+        <v>1022.5</v>
       </c>
     </row>
     <row r="564">
@@ -11187,7 +11187,7 @@
         <v>1</v>
       </c>
       <c r="E566" t="n">
-        <v>1458.870967741936</v>
+        <v>1459.451612903225</v>
       </c>
     </row>
     <row r="567">
@@ -11206,7 +11206,7 @@
         <v>1</v>
       </c>
       <c r="E567" t="n">
-        <v>1305.66129032258</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="568">
@@ -11225,7 +11225,7 @@
         <v>1</v>
       </c>
       <c r="E568" t="n">
-        <v>1877.903225806452</v>
+        <v>1876.935483870968</v>
       </c>
     </row>
     <row r="569">
@@ -11244,7 +11244,7 @@
         <v>1</v>
       </c>
       <c r="E569" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="570">
@@ -11339,7 +11339,7 @@
         <v>1</v>
       </c>
       <c r="E574" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.462365591398</v>
       </c>
     </row>
     <row r="575">
@@ -11358,7 +11358,7 @@
         <v>1</v>
       </c>
       <c r="E575" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.182795698925</v>
       </c>
     </row>
     <row r="576">
@@ -11377,7 +11377,7 @@
         <v>1</v>
       </c>
       <c r="E576" t="n">
-        <v>923</v>
+        <v>921.9999999999991</v>
       </c>
     </row>
     <row r="577">
@@ -11396,7 +11396,7 @@
         <v>1</v>
       </c>
       <c r="E577" t="n">
-        <v>1022</v>
+        <v>1021.5</v>
       </c>
     </row>
     <row r="578">
@@ -11415,7 +11415,7 @@
         <v>1</v>
       </c>
       <c r="E578" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="579">
@@ -11434,7 +11434,7 @@
         <v>1</v>
       </c>
       <c r="E579" t="n">
-        <v>1118.419354838709</v>
+        <v>1119.258064516129</v>
       </c>
     </row>
     <row r="580">
@@ -11453,7 +11453,7 @@
         <v>1</v>
       </c>
       <c r="E580" t="n">
-        <v>1459.16129032258</v>
+        <v>1458.870967741936</v>
       </c>
     </row>
     <row r="581">
@@ -11605,7 +11605,7 @@
         <v>1</v>
       </c>
       <c r="E588" t="n">
-        <v>1095.387096774193</v>
+        <v>1095.311827956989</v>
       </c>
     </row>
     <row r="589">
@@ -11624,7 +11624,7 @@
         <v>1</v>
       </c>
       <c r="E589" t="n">
-        <v>1956.048387096774</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="590">
@@ -11662,7 +11662,7 @@
         <v>1</v>
       </c>
       <c r="E591" t="n">
-        <v>1022.5</v>
+        <v>1021.5</v>
       </c>
     </row>
     <row r="592">
@@ -11681,7 +11681,7 @@
         <v>1</v>
       </c>
       <c r="E592" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="593">
@@ -11776,7 +11776,7 @@
         <v>1</v>
       </c>
       <c r="E597" t="n">
-        <v>810.4838709677415</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="598">
@@ -11795,7 +11795,7 @@
         <v>1</v>
       </c>
       <c r="E598" t="n">
-        <v>2175.483870967741</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="599">
@@ -11871,7 +11871,7 @@
         <v>1</v>
       </c>
       <c r="E602" t="n">
-        <v>1095.462365591398</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="603">
@@ -11890,7 +11890,7 @@
         <v>1</v>
       </c>
       <c r="E603" t="n">
-        <v>1956.182795698925</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="604">
@@ -11966,7 +11966,7 @@
         <v>1</v>
       </c>
       <c r="E607" t="n">
-        <v>1118.419354838709</v>
+        <v>1119.258064516129</v>
       </c>
     </row>
     <row r="608">
@@ -12137,7 +12137,7 @@
         <v>1</v>
       </c>
       <c r="E616" t="n">
-        <v>1095.612903225807</v>
+        <v>1095.311827956989</v>
       </c>
     </row>
     <row r="617">
@@ -12156,7 +12156,7 @@
         <v>1</v>
       </c>
       <c r="E617" t="n">
-        <v>1956.451612903224</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="618">
@@ -12194,7 +12194,7 @@
         <v>1</v>
       </c>
       <c r="E619" t="n">
-        <v>1021.5</v>
+        <v>1022.5</v>
       </c>
     </row>
     <row r="620">
@@ -12251,7 +12251,7 @@
         <v>1</v>
       </c>
       <c r="E622" t="n">
-        <v>1460.032258064516</v>
+        <v>1459.451612903225</v>
       </c>
     </row>
     <row r="623">
@@ -12403,7 +12403,7 @@
         <v>1</v>
       </c>
       <c r="E630" t="n">
-        <v>1095.462365591398</v>
+        <v>1095.311827956989</v>
       </c>
     </row>
     <row r="631">
@@ -12422,7 +12422,7 @@
         <v>1</v>
       </c>
       <c r="E631" t="n">
-        <v>1956.182795698925</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="632">
@@ -12479,7 +12479,7 @@
         <v>1</v>
       </c>
       <c r="E634" t="n">
-        <v>1258.83870967742</v>
+        <v>1259.41935483871</v>
       </c>
     </row>
     <row r="635">
@@ -12498,7 +12498,7 @@
         <v>1</v>
       </c>
       <c r="E635" t="n">
-        <v>1118.419354838709</v>
+        <v>1118.83870967742</v>
       </c>
     </row>
     <row r="636">
@@ -12555,7 +12555,7 @@
         <v>1</v>
       </c>
       <c r="E638" t="n">
-        <v>1877.903225806452</v>
+        <v>1877.41935483871</v>
       </c>
     </row>
     <row r="639">
@@ -12574,7 +12574,7 @@
         <v>1</v>
       </c>
       <c r="E639" t="n">
-        <v>810.5806451612916</v>
+        <v>810.4838709677415</v>
       </c>
     </row>
     <row r="640">
@@ -12669,7 +12669,7 @@
         <v>1</v>
       </c>
       <c r="E644" t="n">
-        <v>1095.612903225806</v>
+        <v>1095.462365591398</v>
       </c>
     </row>
     <row r="645">
@@ -12688,7 +12688,7 @@
         <v>1</v>
       </c>
       <c r="E645" t="n">
-        <v>1956.451612903224</v>
+        <v>1956.182795698925</v>
       </c>
     </row>
     <row r="646">
@@ -12802,7 +12802,7 @@
         <v>1</v>
       </c>
       <c r="E651" t="n">
-        <v>1305.241935483871</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="652">
@@ -12935,7 +12935,7 @@
         <v>1</v>
       </c>
       <c r="E658" t="n">
-        <v>1095.462365591398</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="659">
@@ -12954,7 +12954,7 @@
         <v>1</v>
       </c>
       <c r="E659" t="n">
-        <v>1956.182795698925</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="660">
@@ -12992,7 +12992,7 @@
         <v>1</v>
       </c>
       <c r="E661" t="n">
-        <v>1021.5</v>
+        <v>1022.5</v>
       </c>
     </row>
     <row r="662">
@@ -13030,7 +13030,7 @@
         <v>1</v>
       </c>
       <c r="E663" t="n">
-        <v>1118.83870967742</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="664">
@@ -13068,7 +13068,7 @@
         <v>1</v>
       </c>
       <c r="E665" t="n">
-        <v>1305.24193548387</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="666">
@@ -13087,7 +13087,7 @@
         <v>1</v>
       </c>
       <c r="E666" t="n">
-        <v>1877.41935483871</v>
+        <v>1876.935483870968</v>
       </c>
     </row>
     <row r="667">
@@ -13106,7 +13106,7 @@
         <v>1</v>
       </c>
       <c r="E667" t="n">
-        <v>810.4838709677415</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="668">
@@ -13201,7 +13201,7 @@
         <v>1</v>
       </c>
       <c r="E672" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.462365591398</v>
       </c>
     </row>
     <row r="673">
@@ -13220,7 +13220,7 @@
         <v>1</v>
       </c>
       <c r="E673" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.182795698925</v>
       </c>
     </row>
     <row r="674">
@@ -13524,7 +13524,7 @@
         <v>1</v>
       </c>
       <c r="E689" t="n">
-        <v>1022.5</v>
+        <v>1021.5</v>
       </c>
     </row>
     <row r="690">
@@ -13543,7 +13543,7 @@
         <v>1</v>
       </c>
       <c r="E690" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="691">
@@ -13581,7 +13581,7 @@
         <v>1</v>
       </c>
       <c r="E692" t="n">
-        <v>1459.451612903225</v>
+        <v>1458.870967741936</v>
       </c>
     </row>
     <row r="693">
@@ -13600,7 +13600,7 @@
         <v>1</v>
       </c>
       <c r="E693" t="n">
-        <v>1305.241935483871</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="694">
@@ -13733,7 +13733,7 @@
         <v>1</v>
       </c>
       <c r="E700" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="701">
@@ -13752,7 +13752,7 @@
         <v>1</v>
       </c>
       <c r="E701" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="702">
@@ -13809,7 +13809,7 @@
         <v>1</v>
       </c>
       <c r="E704" t="n">
-        <v>1260</v>
+        <v>1258.83870967742</v>
       </c>
     </row>
     <row r="705">
@@ -13847,7 +13847,7 @@
         <v>1</v>
       </c>
       <c r="E706" t="n">
-        <v>1458.870967741936</v>
+        <v>1460.032258064516</v>
       </c>
     </row>
     <row r="707">
@@ -14056,7 +14056,7 @@
         <v>1</v>
       </c>
       <c r="E717" t="n">
-        <v>1021.5</v>
+        <v>1022.5</v>
       </c>
     </row>
     <row r="718">
@@ -14075,7 +14075,7 @@
         <v>1</v>
       </c>
       <c r="E718" t="n">
-        <v>1260</v>
+        <v>1258.83870967742</v>
       </c>
     </row>
     <row r="719">
@@ -14113,7 +14113,7 @@
         <v>1</v>
       </c>
       <c r="E720" t="n">
-        <v>1458.870967741936</v>
+        <v>1459.451612903225</v>
       </c>
     </row>
     <row r="721">
@@ -14132,7 +14132,7 @@
         <v>1</v>
       </c>
       <c r="E721" t="n">
-        <v>1304.82258064516</v>
+        <v>1305.241935483871</v>
       </c>
     </row>
     <row r="722">
@@ -14265,7 +14265,7 @@
         <v>1</v>
       </c>
       <c r="E728" t="n">
-        <v>1095.612903225807</v>
+        <v>1095.311827956989</v>
       </c>
     </row>
     <row r="729">
@@ -14284,7 +14284,7 @@
         <v>1</v>
       </c>
       <c r="E729" t="n">
-        <v>1956.451612903224</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="730">
@@ -14341,7 +14341,7 @@
         <v>1</v>
       </c>
       <c r="E732" t="n">
-        <v>1258.83870967742</v>
+        <v>1259.41935483871</v>
       </c>
     </row>
     <row r="733">
@@ -14379,7 +14379,7 @@
         <v>1</v>
       </c>
       <c r="E734" t="n">
-        <v>1460.032258064516</v>
+        <v>1458.870967741936</v>
       </c>
     </row>
     <row r="735">
@@ -14398,7 +14398,7 @@
         <v>1</v>
       </c>
       <c r="E735" t="n">
-        <v>1305.241935483871</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="736">
@@ -14417,7 +14417,7 @@
         <v>1</v>
       </c>
       <c r="E736" t="n">
-        <v>1876.935483870968</v>
+        <v>1877.41935483871</v>
       </c>
     </row>
     <row r="737">
@@ -14436,7 +14436,7 @@
         <v>1</v>
       </c>
       <c r="E737" t="n">
-        <v>810.3870967741932</v>
+        <v>810.4838709677415</v>
       </c>
     </row>
     <row r="738">
@@ -14531,7 +14531,7 @@
         <v>1</v>
       </c>
       <c r="E742" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.462365591398</v>
       </c>
     </row>
     <row r="743">
@@ -14550,7 +14550,7 @@
         <v>1</v>
       </c>
       <c r="E743" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.182795698925</v>
       </c>
     </row>
     <row r="744">
@@ -14645,7 +14645,7 @@
         <v>1</v>
       </c>
       <c r="E748" t="n">
-        <v>1458.870967741936</v>
+        <v>1460.032258064516</v>
       </c>
     </row>
     <row r="749">
@@ -14664,7 +14664,7 @@
         <v>1</v>
       </c>
       <c r="E749" t="n">
-        <v>1305.66129032258</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="750">
@@ -14683,7 +14683,7 @@
         <v>1</v>
       </c>
       <c r="E750" t="n">
-        <v>1877.903225806452</v>
+        <v>1876.935483870968</v>
       </c>
     </row>
     <row r="751">
@@ -14702,7 +14702,7 @@
         <v>1</v>
       </c>
       <c r="E751" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="752">
@@ -14797,7 +14797,7 @@
         <v>1</v>
       </c>
       <c r="E756" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="757">
@@ -14816,7 +14816,7 @@
         <v>1</v>
       </c>
       <c r="E757" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="758">
@@ -14930,7 +14930,7 @@
         <v>1</v>
       </c>
       <c r="E763" t="n">
-        <v>1305.241935483871</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="764">
@@ -15063,7 +15063,7 @@
         <v>1</v>
       </c>
       <c r="E770" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.462365591398</v>
       </c>
     </row>
     <row r="771">
@@ -15082,7 +15082,7 @@
         <v>1</v>
       </c>
       <c r="E771" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.182795698925</v>
       </c>
     </row>
     <row r="772">
@@ -15101,7 +15101,7 @@
         <v>1</v>
       </c>
       <c r="E772" t="n">
-        <v>923</v>
+        <v>921.9999999999991</v>
       </c>
     </row>
     <row r="773">
@@ -15139,7 +15139,7 @@
         <v>1</v>
       </c>
       <c r="E774" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="775">
@@ -15158,7 +15158,7 @@
         <v>1</v>
       </c>
       <c r="E775" t="n">
-        <v>1118.419354838709</v>
+        <v>1119.258064516129</v>
       </c>
     </row>
     <row r="776">
@@ -15177,7 +15177,7 @@
         <v>1</v>
       </c>
       <c r="E776" t="n">
-        <v>1459.451612903225</v>
+        <v>1458.870967741936</v>
       </c>
     </row>
     <row r="777">
@@ -15329,7 +15329,7 @@
         <v>1</v>
       </c>
       <c r="E784" t="n">
-        <v>1095.462365591398</v>
+        <v>1095.311827956989</v>
       </c>
     </row>
     <row r="785">
@@ -15348,7 +15348,7 @@
         <v>1</v>
       </c>
       <c r="E785" t="n">
-        <v>1956.182795698925</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="786">
@@ -15386,7 +15386,7 @@
         <v>1</v>
       </c>
       <c r="E787" t="n">
-        <v>1022.5</v>
+        <v>1021.5</v>
       </c>
     </row>
     <row r="788">
@@ -15405,7 +15405,7 @@
         <v>1</v>
       </c>
       <c r="E788" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="789">
@@ -15443,7 +15443,7 @@
         <v>1</v>
       </c>
       <c r="E790" t="n">
-        <v>1459.451612903225</v>
+        <v>1458.870967741936</v>
       </c>
     </row>
     <row r="791">
@@ -15462,7 +15462,7 @@
         <v>1</v>
       </c>
       <c r="E791" t="n">
-        <v>1305.241935483871</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="792">
@@ -15595,7 +15595,7 @@
         <v>1</v>
       </c>
       <c r="E798" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="799">
@@ -15614,7 +15614,7 @@
         <v>1</v>
       </c>
       <c r="E799" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="800">
@@ -15671,7 +15671,7 @@
         <v>1</v>
       </c>
       <c r="E802" t="n">
-        <v>1260</v>
+        <v>1258.83870967742</v>
       </c>
     </row>
     <row r="803">
@@ -15709,7 +15709,7 @@
         <v>1</v>
       </c>
       <c r="E804" t="n">
-        <v>1458.870967741936</v>
+        <v>1460.032258064516</v>
       </c>
     </row>
     <row r="805">
@@ -15918,7 +15918,7 @@
         <v>1</v>
       </c>
       <c r="E815" t="n">
-        <v>1021.5</v>
+        <v>1022.5</v>
       </c>
     </row>
     <row r="816">
@@ -15937,7 +15937,7 @@
         <v>1</v>
       </c>
       <c r="E816" t="n">
-        <v>1260</v>
+        <v>1258.83870967742</v>
       </c>
     </row>
     <row r="817">
@@ -15975,7 +15975,7 @@
         <v>1</v>
       </c>
       <c r="E818" t="n">
-        <v>1458.870967741936</v>
+        <v>1459.451612903225</v>
       </c>
     </row>
     <row r="819">
@@ -15994,7 +15994,7 @@
         <v>1</v>
       </c>
       <c r="E819" t="n">
-        <v>1304.82258064516</v>
+        <v>1305.241935483871</v>
       </c>
     </row>
     <row r="820">
@@ -16127,7 +16127,7 @@
         <v>1</v>
       </c>
       <c r="E826" t="n">
-        <v>1095.612903225807</v>
+        <v>1095.311827956989</v>
       </c>
     </row>
     <row r="827">
@@ -16146,7 +16146,7 @@
         <v>1</v>
       </c>
       <c r="E827" t="n">
-        <v>1956.451612903224</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="828">
@@ -16203,7 +16203,7 @@
         <v>1</v>
       </c>
       <c r="E830" t="n">
-        <v>1258.83870967742</v>
+        <v>1259.41935483871</v>
       </c>
     </row>
     <row r="831">
@@ -16241,7 +16241,7 @@
         <v>1</v>
       </c>
       <c r="E832" t="n">
-        <v>1460.032258064516</v>
+        <v>1458.870967741936</v>
       </c>
     </row>
     <row r="833">
@@ -16260,7 +16260,7 @@
         <v>1</v>
       </c>
       <c r="E833" t="n">
-        <v>1305.241935483871</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="834">
@@ -16279,7 +16279,7 @@
         <v>1</v>
       </c>
       <c r="E834" t="n">
-        <v>1876.935483870968</v>
+        <v>1877.41935483871</v>
       </c>
     </row>
     <row r="835">
@@ -16298,7 +16298,7 @@
         <v>1</v>
       </c>
       <c r="E835" t="n">
-        <v>810.3870967741932</v>
+        <v>810.4838709677415</v>
       </c>
     </row>
     <row r="836">
@@ -16393,7 +16393,7 @@
         <v>1</v>
       </c>
       <c r="E840" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.462365591398</v>
       </c>
     </row>
     <row r="841">
@@ -16412,7 +16412,7 @@
         <v>1</v>
       </c>
       <c r="E841" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.182795698925</v>
       </c>
     </row>
     <row r="842">
@@ -16507,7 +16507,7 @@
         <v>1</v>
       </c>
       <c r="E846" t="n">
-        <v>1458.870967741936</v>
+        <v>1460.032258064516</v>
       </c>
     </row>
     <row r="847">
@@ -16526,7 +16526,7 @@
         <v>1</v>
       </c>
       <c r="E847" t="n">
-        <v>1305.66129032258</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="848">
@@ -16545,7 +16545,7 @@
         <v>1</v>
       </c>
       <c r="E848" t="n">
-        <v>1877.903225806452</v>
+        <v>1876.935483870968</v>
       </c>
     </row>
     <row r="849">
@@ -16564,7 +16564,7 @@
         <v>1</v>
       </c>
       <c r="E849" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="850">
@@ -16659,7 +16659,7 @@
         <v>1</v>
       </c>
       <c r="E854" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="855">
@@ -16678,7 +16678,7 @@
         <v>1</v>
       </c>
       <c r="E855" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="856">
@@ -16792,7 +16792,7 @@
         <v>1</v>
       </c>
       <c r="E861" t="n">
-        <v>1305.241935483871</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="862">
@@ -16925,7 +16925,7 @@
         <v>1</v>
       </c>
       <c r="E868" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.462365591398</v>
       </c>
     </row>
     <row r="869">
@@ -16944,7 +16944,7 @@
         <v>1</v>
       </c>
       <c r="E869" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.182795698925</v>
       </c>
     </row>
     <row r="870">
@@ -16963,7 +16963,7 @@
         <v>1</v>
       </c>
       <c r="E870" t="n">
-        <v>923</v>
+        <v>921.9999999999991</v>
       </c>
     </row>
     <row r="871">
@@ -17001,7 +17001,7 @@
         <v>1</v>
       </c>
       <c r="E872" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="873">
@@ -17020,7 +17020,7 @@
         <v>1</v>
       </c>
       <c r="E873" t="n">
-        <v>1118.419354838709</v>
+        <v>1119.258064516129</v>
       </c>
     </row>
     <row r="874">
@@ -17039,7 +17039,7 @@
         <v>1</v>
       </c>
       <c r="E874" t="n">
-        <v>1459.451612903225</v>
+        <v>1458.870967741936</v>
       </c>
     </row>
     <row r="875">
@@ -17191,7 +17191,7 @@
         <v>1</v>
       </c>
       <c r="E882" t="n">
-        <v>1095.462365591398</v>
+        <v>1095.311827956989</v>
       </c>
     </row>
     <row r="883">
@@ -17210,7 +17210,7 @@
         <v>1</v>
       </c>
       <c r="E883" t="n">
-        <v>1956.182795698925</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="884">
@@ -17248,7 +17248,7 @@
         <v>1</v>
       </c>
       <c r="E885" t="n">
-        <v>1022.5</v>
+        <v>1021.5</v>
       </c>
     </row>
     <row r="886">
@@ -17267,7 +17267,7 @@
         <v>1</v>
       </c>
       <c r="E886" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="887">
@@ -17305,7 +17305,7 @@
         <v>1</v>
       </c>
       <c r="E888" t="n">
-        <v>1459.451612903225</v>
+        <v>1458.870967741936</v>
       </c>
     </row>
     <row r="889">
@@ -17324,7 +17324,7 @@
         <v>1</v>
       </c>
       <c r="E889" t="n">
-        <v>1305.241935483871</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="890">
@@ -17457,7 +17457,7 @@
         <v>1</v>
       </c>
       <c r="E896" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="897">
@@ -17476,7 +17476,7 @@
         <v>1</v>
       </c>
       <c r="E897" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="898">
@@ -17533,7 +17533,7 @@
         <v>1</v>
       </c>
       <c r="E900" t="n">
-        <v>1260</v>
+        <v>1258.83870967742</v>
       </c>
     </row>
     <row r="901">
@@ -17571,7 +17571,7 @@
         <v>1</v>
       </c>
       <c r="E902" t="n">
-        <v>1458.870967741936</v>
+        <v>1460.032258064516</v>
       </c>
     </row>
     <row r="903">
@@ -17780,7 +17780,7 @@
         <v>1</v>
       </c>
       <c r="E913" t="n">
-        <v>1021.5</v>
+        <v>1022.5</v>
       </c>
     </row>
     <row r="914">
@@ -17799,7 +17799,7 @@
         <v>1</v>
       </c>
       <c r="E914" t="n">
-        <v>1260</v>
+        <v>1258.83870967742</v>
       </c>
     </row>
     <row r="915">
@@ -17837,7 +17837,7 @@
         <v>1</v>
       </c>
       <c r="E916" t="n">
-        <v>1458.870967741936</v>
+        <v>1459.451612903225</v>
       </c>
     </row>
     <row r="917">
@@ -17856,7 +17856,7 @@
         <v>1</v>
       </c>
       <c r="E917" t="n">
-        <v>1304.82258064516</v>
+        <v>1305.241935483871</v>
       </c>
     </row>
     <row r="918">
@@ -17989,7 +17989,7 @@
         <v>1</v>
       </c>
       <c r="E924" t="n">
-        <v>1095.612903225807</v>
+        <v>1095.311827956989</v>
       </c>
     </row>
     <row r="925">
@@ -18008,7 +18008,7 @@
         <v>1</v>
       </c>
       <c r="E925" t="n">
-        <v>1956.451612903224</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="926">
@@ -18065,7 +18065,7 @@
         <v>1</v>
       </c>
       <c r="E928" t="n">
-        <v>1258.83870967742</v>
+        <v>1259.41935483871</v>
       </c>
     </row>
     <row r="929">
@@ -18103,7 +18103,7 @@
         <v>1</v>
       </c>
       <c r="E930" t="n">
-        <v>1460.032258064516</v>
+        <v>1458.870967741936</v>
       </c>
     </row>
     <row r="931">
@@ -18122,7 +18122,7 @@
         <v>1</v>
       </c>
       <c r="E931" t="n">
-        <v>1305.241935483871</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="932">
@@ -18141,7 +18141,7 @@
         <v>1</v>
       </c>
       <c r="E932" t="n">
-        <v>1876.935483870968</v>
+        <v>1877.41935483871</v>
       </c>
     </row>
     <row r="933">
@@ -18160,7 +18160,7 @@
         <v>1</v>
       </c>
       <c r="E933" t="n">
-        <v>810.3870967741932</v>
+        <v>810.4838709677415</v>
       </c>
     </row>
     <row r="934">
@@ -18255,7 +18255,7 @@
         <v>1</v>
       </c>
       <c r="E938" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.462365591398</v>
       </c>
     </row>
     <row r="939">
@@ -18274,7 +18274,7 @@
         <v>1</v>
       </c>
       <c r="E939" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.182795698925</v>
       </c>
     </row>
     <row r="940">
@@ -18369,7 +18369,7 @@
         <v>1</v>
       </c>
       <c r="E944" t="n">
-        <v>1458.870967741936</v>
+        <v>1460.032258064516</v>
       </c>
     </row>
     <row r="945">
@@ -18388,7 +18388,7 @@
         <v>1</v>
       </c>
       <c r="E945" t="n">
-        <v>1305.66129032258</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="946">
@@ -18407,7 +18407,7 @@
         <v>1</v>
       </c>
       <c r="E946" t="n">
-        <v>1877.903225806452</v>
+        <v>1876.935483870968</v>
       </c>
     </row>
     <row r="947">
@@ -18426,7 +18426,7 @@
         <v>1</v>
       </c>
       <c r="E947" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="948">
@@ -18521,7 +18521,7 @@
         <v>1</v>
       </c>
       <c r="E952" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="953">
@@ -18540,7 +18540,7 @@
         <v>1</v>
       </c>
       <c r="E953" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="954">
@@ -18654,7 +18654,7 @@
         <v>1</v>
       </c>
       <c r="E959" t="n">
-        <v>1305.241935483871</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="960">
@@ -18787,7 +18787,7 @@
         <v>1</v>
       </c>
       <c r="E966" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.462365591398</v>
       </c>
     </row>
     <row r="967">
@@ -18806,7 +18806,7 @@
         <v>1</v>
       </c>
       <c r="E967" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.182795698925</v>
       </c>
     </row>
     <row r="968">
@@ -18825,7 +18825,7 @@
         <v>1</v>
       </c>
       <c r="E968" t="n">
-        <v>923</v>
+        <v>921.9999999999991</v>
       </c>
     </row>
     <row r="969">
@@ -18863,7 +18863,7 @@
         <v>1</v>
       </c>
       <c r="E970" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="971">
@@ -18882,7 +18882,7 @@
         <v>1</v>
       </c>
       <c r="E971" t="n">
-        <v>1118.419354838709</v>
+        <v>1119.258064516129</v>
       </c>
     </row>
     <row r="972">
@@ -18901,7 +18901,7 @@
         <v>1</v>
       </c>
       <c r="E972" t="n">
-        <v>1459.451612903225</v>
+        <v>1458.870967741936</v>
       </c>
     </row>
     <row r="973">
@@ -19053,7 +19053,7 @@
         <v>1</v>
       </c>
       <c r="E980" t="n">
-        <v>1095.462365591398</v>
+        <v>1095.311827956989</v>
       </c>
     </row>
     <row r="981">
@@ -19072,7 +19072,7 @@
         <v>1</v>
       </c>
       <c r="E981" t="n">
-        <v>1956.182795698925</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="982">
@@ -19110,7 +19110,7 @@
         <v>1</v>
       </c>
       <c r="E983" t="n">
-        <v>1022.5</v>
+        <v>1021.5</v>
       </c>
     </row>
     <row r="984">
@@ -19129,7 +19129,7 @@
         <v>1</v>
       </c>
       <c r="E984" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="985">
@@ -19167,7 +19167,7 @@
         <v>1</v>
       </c>
       <c r="E986" t="n">
-        <v>1459.451612903225</v>
+        <v>1458.870967741936</v>
       </c>
     </row>
     <row r="987">
@@ -19186,7 +19186,7 @@
         <v>1</v>
       </c>
       <c r="E987" t="n">
-        <v>1305.241935483871</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="988">
@@ -19319,7 +19319,7 @@
         <v>1</v>
       </c>
       <c r="E994" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="995">
@@ -19338,7 +19338,7 @@
         <v>1</v>
       </c>
       <c r="E995" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="996">
@@ -19395,7 +19395,7 @@
         <v>1</v>
       </c>
       <c r="E998" t="n">
-        <v>1260</v>
+        <v>1258.83870967742</v>
       </c>
     </row>
     <row r="999">
@@ -19433,7 +19433,7 @@
         <v>1</v>
       </c>
       <c r="E1000" t="n">
-        <v>1458.870967741936</v>
+        <v>1460.032258064516</v>
       </c>
     </row>
     <row r="1001">
@@ -19642,7 +19642,7 @@
         <v>1</v>
       </c>
       <c r="E1011" t="n">
-        <v>1021.5</v>
+        <v>1022.5</v>
       </c>
     </row>
     <row r="1012">
@@ -19661,7 +19661,7 @@
         <v>1</v>
       </c>
       <c r="E1012" t="n">
-        <v>1260</v>
+        <v>1258.83870967742</v>
       </c>
     </row>
     <row r="1013">
@@ -19699,7 +19699,7 @@
         <v>1</v>
       </c>
       <c r="E1014" t="n">
-        <v>1458.870967741936</v>
+        <v>1459.451612903225</v>
       </c>
     </row>
     <row r="1015">
@@ -19718,7 +19718,7 @@
         <v>1</v>
       </c>
       <c r="E1015" t="n">
-        <v>1304.82258064516</v>
+        <v>1305.241935483871</v>
       </c>
     </row>
     <row r="1016">
@@ -19851,7 +19851,7 @@
         <v>1</v>
       </c>
       <c r="E1022" t="n">
-        <v>1095.612903225807</v>
+        <v>1095.311827956989</v>
       </c>
     </row>
     <row r="1023">
@@ -19870,7 +19870,7 @@
         <v>1</v>
       </c>
       <c r="E1023" t="n">
-        <v>1956.451612903224</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="1024">
@@ -19927,7 +19927,7 @@
         <v>1</v>
       </c>
       <c r="E1026" t="n">
-        <v>1258.83870967742</v>
+        <v>1259.41935483871</v>
       </c>
     </row>
     <row r="1027">
@@ -19965,7 +19965,7 @@
         <v>1</v>
       </c>
       <c r="E1028" t="n">
-        <v>1460.032258064516</v>
+        <v>1458.870967741936</v>
       </c>
     </row>
     <row r="1029">
@@ -19984,7 +19984,7 @@
         <v>1</v>
       </c>
       <c r="E1029" t="n">
-        <v>1305.241935483871</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="1030">
@@ -20003,7 +20003,7 @@
         <v>1</v>
       </c>
       <c r="E1030" t="n">
-        <v>1876.935483870968</v>
+        <v>1877.41935483871</v>
       </c>
     </row>
     <row r="1031">
@@ -20022,7 +20022,7 @@
         <v>1</v>
       </c>
       <c r="E1031" t="n">
-        <v>810.3870967741932</v>
+        <v>810.4838709677415</v>
       </c>
     </row>
     <row r="1032">
@@ -20117,7 +20117,7 @@
         <v>1</v>
       </c>
       <c r="E1036" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.462365591398</v>
       </c>
     </row>
     <row r="1037">
@@ -20136,7 +20136,7 @@
         <v>1</v>
       </c>
       <c r="E1037" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.182795698925</v>
       </c>
     </row>
     <row r="1038">
@@ -20231,7 +20231,7 @@
         <v>1</v>
       </c>
       <c r="E1042" t="n">
-        <v>1458.870967741936</v>
+        <v>1460.032258064516</v>
       </c>
     </row>
     <row r="1043">
@@ -20250,7 +20250,7 @@
         <v>1</v>
       </c>
       <c r="E1043" t="n">
-        <v>1305.66129032258</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="1044">
@@ -20269,7 +20269,7 @@
         <v>1</v>
       </c>
       <c r="E1044" t="n">
-        <v>1877.903225806452</v>
+        <v>1876.935483870968</v>
       </c>
     </row>
     <row r="1045">
@@ -20288,7 +20288,7 @@
         <v>1</v>
       </c>
       <c r="E1045" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="1046">
@@ -20383,7 +20383,7 @@
         <v>1</v>
       </c>
       <c r="E1050" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="1051">
@@ -20402,7 +20402,7 @@
         <v>1</v>
       </c>
       <c r="E1051" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="1052">
@@ -20516,7 +20516,7 @@
         <v>1</v>
       </c>
       <c r="E1057" t="n">
-        <v>1305.241935483871</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="1058">
@@ -20649,7 +20649,7 @@
         <v>1</v>
       </c>
       <c r="E1064" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.462365591398</v>
       </c>
     </row>
     <row r="1065">
@@ -20668,7 +20668,7 @@
         <v>1</v>
       </c>
       <c r="E1065" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.182795698925</v>
       </c>
     </row>
     <row r="1066">
@@ -20687,7 +20687,7 @@
         <v>1</v>
       </c>
       <c r="E1066" t="n">
-        <v>923</v>
+        <v>921.9999999999991</v>
       </c>
     </row>
     <row r="1067">
@@ -20725,7 +20725,7 @@
         <v>1</v>
       </c>
       <c r="E1068" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1069">
@@ -20744,7 +20744,7 @@
         <v>1</v>
       </c>
       <c r="E1069" t="n">
-        <v>1118.419354838709</v>
+        <v>1119.258064516129</v>
       </c>
     </row>
     <row r="1070">
@@ -20763,7 +20763,7 @@
         <v>1</v>
       </c>
       <c r="E1070" t="n">
-        <v>1459.451612903225</v>
+        <v>1458.870967741936</v>
       </c>
     </row>
     <row r="1071">
@@ -20915,7 +20915,7 @@
         <v>1</v>
       </c>
       <c r="E1078" t="n">
-        <v>1095.462365591398</v>
+        <v>1095.311827956989</v>
       </c>
     </row>
     <row r="1079">
@@ -20934,7 +20934,7 @@
         <v>1</v>
       </c>
       <c r="E1079" t="n">
-        <v>1956.182795698925</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="1080">
@@ -20972,7 +20972,7 @@
         <v>1</v>
       </c>
       <c r="E1081" t="n">
-        <v>1022.5</v>
+        <v>1021.5</v>
       </c>
     </row>
     <row r="1082">
@@ -20991,7 +20991,7 @@
         <v>1</v>
       </c>
       <c r="E1082" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1083">
@@ -21029,7 +21029,7 @@
         <v>1</v>
       </c>
       <c r="E1084" t="n">
-        <v>1459.451612903225</v>
+        <v>1458.870967741936</v>
       </c>
     </row>
     <row r="1085">
@@ -21048,7 +21048,7 @@
         <v>1</v>
       </c>
       <c r="E1085" t="n">
-        <v>1305.241935483871</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="1086">
@@ -21181,7 +21181,7 @@
         <v>1</v>
       </c>
       <c r="E1092" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="1093">
@@ -21200,7 +21200,7 @@
         <v>1</v>
       </c>
       <c r="E1093" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="1094">
@@ -21257,7 +21257,7 @@
         <v>1</v>
       </c>
       <c r="E1096" t="n">
-        <v>1260</v>
+        <v>1258.83870967742</v>
       </c>
     </row>
     <row r="1097">
@@ -21295,7 +21295,7 @@
         <v>1</v>
       </c>
       <c r="E1098" t="n">
-        <v>1458.870967741936</v>
+        <v>1460.032258064516</v>
       </c>
     </row>
     <row r="1099">
@@ -21504,7 +21504,7 @@
         <v>1</v>
       </c>
       <c r="E1109" t="n">
-        <v>1021.5</v>
+        <v>1022.5</v>
       </c>
     </row>
     <row r="1110">
@@ -21523,7 +21523,7 @@
         <v>1</v>
       </c>
       <c r="E1110" t="n">
-        <v>1260</v>
+        <v>1258.83870967742</v>
       </c>
     </row>
     <row r="1111">
@@ -21561,7 +21561,7 @@
         <v>1</v>
       </c>
       <c r="E1112" t="n">
-        <v>1458.870967741936</v>
+        <v>1459.451612903225</v>
       </c>
     </row>
     <row r="1113">
@@ -21580,7 +21580,7 @@
         <v>1</v>
       </c>
       <c r="E1113" t="n">
-        <v>1304.82258064516</v>
+        <v>1305.241935483871</v>
       </c>
     </row>
     <row r="1114">
@@ -21713,7 +21713,7 @@
         <v>1</v>
       </c>
       <c r="E1120" t="n">
-        <v>1095.612903225807</v>
+        <v>1095.311827956989</v>
       </c>
     </row>
     <row r="1121">
@@ -21732,7 +21732,7 @@
         <v>1</v>
       </c>
       <c r="E1121" t="n">
-        <v>1956.451612903224</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="1122">
@@ -21789,7 +21789,7 @@
         <v>1</v>
       </c>
       <c r="E1124" t="n">
-        <v>1258.83870967742</v>
+        <v>1259.41935483871</v>
       </c>
     </row>
     <row r="1125">
@@ -21827,7 +21827,7 @@
         <v>1</v>
       </c>
       <c r="E1126" t="n">
-        <v>1460.032258064516</v>
+        <v>1458.870967741936</v>
       </c>
     </row>
     <row r="1127">
@@ -21846,7 +21846,7 @@
         <v>1</v>
       </c>
       <c r="E1127" t="n">
-        <v>1305.241935483871</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="1128">
@@ -21865,7 +21865,7 @@
         <v>1</v>
       </c>
       <c r="E1128" t="n">
-        <v>1876.935483870968</v>
+        <v>1877.41935483871</v>
       </c>
     </row>
     <row r="1129">
@@ -21884,7 +21884,7 @@
         <v>1</v>
       </c>
       <c r="E1129" t="n">
-        <v>810.3870967741932</v>
+        <v>810.4838709677415</v>
       </c>
     </row>
     <row r="1130">
@@ -21979,7 +21979,7 @@
         <v>1</v>
       </c>
       <c r="E1134" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.462365591398</v>
       </c>
     </row>
     <row r="1135">
@@ -21998,7 +21998,7 @@
         <v>1</v>
       </c>
       <c r="E1135" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.182795698925</v>
       </c>
     </row>
     <row r="1136">
@@ -22093,7 +22093,7 @@
         <v>1</v>
       </c>
       <c r="E1140" t="n">
-        <v>1458.870967741936</v>
+        <v>1460.032258064516</v>
       </c>
     </row>
     <row r="1141">
@@ -22112,7 +22112,7 @@
         <v>1</v>
       </c>
       <c r="E1141" t="n">
-        <v>1305.66129032258</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="1142">
@@ -22131,7 +22131,7 @@
         <v>1</v>
       </c>
       <c r="E1142" t="n">
-        <v>1877.903225806452</v>
+        <v>1876.935483870968</v>
       </c>
     </row>
     <row r="1143">
@@ -22150,7 +22150,7 @@
         <v>1</v>
       </c>
       <c r="E1143" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="1144">
@@ -22245,7 +22245,7 @@
         <v>1</v>
       </c>
       <c r="E1148" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="1149">
@@ -22264,7 +22264,7 @@
         <v>1</v>
       </c>
       <c r="E1149" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="1150">
@@ -22378,7 +22378,7 @@
         <v>1</v>
       </c>
       <c r="E1155" t="n">
-        <v>1305.241935483871</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="1156">
@@ -22511,7 +22511,7 @@
         <v>1</v>
       </c>
       <c r="E1162" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.462365591398</v>
       </c>
     </row>
     <row r="1163">
@@ -22530,7 +22530,7 @@
         <v>1</v>
       </c>
       <c r="E1163" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.182795698925</v>
       </c>
     </row>
     <row r="1164">
@@ -22549,7 +22549,7 @@
         <v>1</v>
       </c>
       <c r="E1164" t="n">
-        <v>923</v>
+        <v>921.9999999999991</v>
       </c>
     </row>
     <row r="1165">
@@ -22587,7 +22587,7 @@
         <v>1</v>
       </c>
       <c r="E1166" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1167">
@@ -22606,7 +22606,7 @@
         <v>1</v>
       </c>
       <c r="E1167" t="n">
-        <v>1118.419354838709</v>
+        <v>1119.258064516129</v>
       </c>
     </row>
     <row r="1168">
@@ -22625,7 +22625,7 @@
         <v>1</v>
       </c>
       <c r="E1168" t="n">
-        <v>1459.451612903225</v>
+        <v>1458.870967741936</v>
       </c>
     </row>
     <row r="1169">
@@ -22777,7 +22777,7 @@
         <v>1</v>
       </c>
       <c r="E1176" t="n">
-        <v>1095.462365591398</v>
+        <v>1095.311827956989</v>
       </c>
     </row>
     <row r="1177">
@@ -22796,7 +22796,7 @@
         <v>1</v>
       </c>
       <c r="E1177" t="n">
-        <v>1956.182795698925</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="1178">
@@ -22834,7 +22834,7 @@
         <v>1</v>
       </c>
       <c r="E1179" t="n">
-        <v>1022.5</v>
+        <v>1021.5</v>
       </c>
     </row>
     <row r="1180">
@@ -22853,7 +22853,7 @@
         <v>1</v>
       </c>
       <c r="E1180" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1181">
@@ -22891,7 +22891,7 @@
         <v>1</v>
       </c>
       <c r="E1182" t="n">
-        <v>1459.451612903225</v>
+        <v>1458.870967741936</v>
       </c>
     </row>
     <row r="1183">
@@ -22910,7 +22910,7 @@
         <v>1</v>
       </c>
       <c r="E1183" t="n">
-        <v>1305.241935483871</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="1184">
@@ -23043,7 +23043,7 @@
         <v>1</v>
       </c>
       <c r="E1190" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="1191">
@@ -23062,7 +23062,7 @@
         <v>1</v>
       </c>
       <c r="E1191" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="1192">
@@ -23119,7 +23119,7 @@
         <v>1</v>
       </c>
       <c r="E1194" t="n">
-        <v>1260</v>
+        <v>1258.83870967742</v>
       </c>
     </row>
     <row r="1195">
@@ -23157,7 +23157,7 @@
         <v>1</v>
       </c>
       <c r="E1196" t="n">
-        <v>1458.870967741936</v>
+        <v>1460.032258064516</v>
       </c>
     </row>
     <row r="1197">
@@ -23366,7 +23366,7 @@
         <v>1</v>
       </c>
       <c r="E1207" t="n">
-        <v>1021.5</v>
+        <v>1022.5</v>
       </c>
     </row>
     <row r="1208">
@@ -23385,7 +23385,7 @@
         <v>1</v>
       </c>
       <c r="E1208" t="n">
-        <v>1260</v>
+        <v>1258.83870967742</v>
       </c>
     </row>
     <row r="1209">
@@ -23423,7 +23423,7 @@
         <v>1</v>
       </c>
       <c r="E1210" t="n">
-        <v>1458.870967741936</v>
+        <v>1459.451612903225</v>
       </c>
     </row>
     <row r="1211">
@@ -23442,7 +23442,7 @@
         <v>1</v>
       </c>
       <c r="E1211" t="n">
-        <v>1304.82258064516</v>
+        <v>1305.241935483871</v>
       </c>
     </row>
     <row r="1212">
@@ -23575,7 +23575,7 @@
         <v>1</v>
       </c>
       <c r="E1218" t="n">
-        <v>1095.612903225807</v>
+        <v>1095.311827956989</v>
       </c>
     </row>
     <row r="1219">
@@ -23594,7 +23594,7 @@
         <v>1</v>
       </c>
       <c r="E1219" t="n">
-        <v>1956.451612903224</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="1220">
@@ -23651,7 +23651,7 @@
         <v>1</v>
       </c>
       <c r="E1222" t="n">
-        <v>1258.83870967742</v>
+        <v>1259.41935483871</v>
       </c>
     </row>
     <row r="1223">
@@ -23689,7 +23689,7 @@
         <v>1</v>
       </c>
       <c r="E1224" t="n">
-        <v>1460.032258064516</v>
+        <v>1458.870967741936</v>
       </c>
     </row>
     <row r="1225">
@@ -23708,7 +23708,7 @@
         <v>1</v>
       </c>
       <c r="E1225" t="n">
-        <v>1305.241935483871</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="1226">
@@ -23727,7 +23727,7 @@
         <v>1</v>
       </c>
       <c r="E1226" t="n">
-        <v>1876.935483870968</v>
+        <v>1877.41935483871</v>
       </c>
     </row>
     <row r="1227">
@@ -23746,7 +23746,7 @@
         <v>1</v>
       </c>
       <c r="E1227" t="n">
-        <v>810.3870967741932</v>
+        <v>810.4838709677415</v>
       </c>
     </row>
     <row r="1228">
@@ -23841,7 +23841,7 @@
         <v>1</v>
       </c>
       <c r="E1232" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.462365591398</v>
       </c>
     </row>
     <row r="1233">
@@ -23860,7 +23860,7 @@
         <v>1</v>
       </c>
       <c r="E1233" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.182795698925</v>
       </c>
     </row>
     <row r="1234">
@@ -23955,7 +23955,7 @@
         <v>1</v>
       </c>
       <c r="E1238" t="n">
-        <v>1458.870967741936</v>
+        <v>1460.032258064516</v>
       </c>
     </row>
     <row r="1239">
@@ -23974,7 +23974,7 @@
         <v>1</v>
       </c>
       <c r="E1239" t="n">
-        <v>1305.66129032258</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="1240">
@@ -23993,7 +23993,7 @@
         <v>1</v>
       </c>
       <c r="E1240" t="n">
-        <v>1877.903225806452</v>
+        <v>1876.935483870968</v>
       </c>
     </row>
     <row r="1241">
@@ -24012,7 +24012,7 @@
         <v>1</v>
       </c>
       <c r="E1241" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="1242">
@@ -24107,7 +24107,7 @@
         <v>1</v>
       </c>
       <c r="E1246" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="1247">
@@ -24126,7 +24126,7 @@
         <v>1</v>
       </c>
       <c r="E1247" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="1248">
@@ -24240,7 +24240,7 @@
         <v>1</v>
       </c>
       <c r="E1253" t="n">
-        <v>1305.241935483871</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="1254">
@@ -24373,7 +24373,7 @@
         <v>1</v>
       </c>
       <c r="E1260" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.462365591398</v>
       </c>
     </row>
     <row r="1261">
@@ -24392,7 +24392,7 @@
         <v>1</v>
       </c>
       <c r="E1261" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.182795698925</v>
       </c>
     </row>
     <row r="1262">
@@ -24411,7 +24411,7 @@
         <v>1</v>
       </c>
       <c r="E1262" t="n">
-        <v>923</v>
+        <v>921.9999999999991</v>
       </c>
     </row>
     <row r="1263">
@@ -24449,7 +24449,7 @@
         <v>1</v>
       </c>
       <c r="E1264" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1265">
@@ -24468,7 +24468,7 @@
         <v>1</v>
       </c>
       <c r="E1265" t="n">
-        <v>1118.419354838709</v>
+        <v>1119.258064516129</v>
       </c>
     </row>
     <row r="1266">
@@ -24487,7 +24487,7 @@
         <v>1</v>
       </c>
       <c r="E1266" t="n">
-        <v>1459.451612903225</v>
+        <v>1458.870967741936</v>
       </c>
     </row>
     <row r="1267">
@@ -24639,7 +24639,7 @@
         <v>1</v>
       </c>
       <c r="E1274" t="n">
-        <v>1095.462365591398</v>
+        <v>1095.311827956989</v>
       </c>
     </row>
     <row r="1275">
@@ -24658,7 +24658,7 @@
         <v>1</v>
       </c>
       <c r="E1275" t="n">
-        <v>1956.182795698925</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="1276">
@@ -24696,7 +24696,7 @@
         <v>1</v>
       </c>
       <c r="E1277" t="n">
-        <v>1022.5</v>
+        <v>1021.5</v>
       </c>
     </row>
     <row r="1278">
@@ -24715,7 +24715,7 @@
         <v>1</v>
       </c>
       <c r="E1278" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1279">
@@ -24753,7 +24753,7 @@
         <v>1</v>
       </c>
       <c r="E1280" t="n">
-        <v>1459.451612903225</v>
+        <v>1458.870967741936</v>
       </c>
     </row>
     <row r="1281">
@@ -24772,7 +24772,7 @@
         <v>1</v>
       </c>
       <c r="E1281" t="n">
-        <v>1305.241935483871</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="1282">
@@ -24905,7 +24905,7 @@
         <v>1</v>
       </c>
       <c r="E1288" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="1289">
@@ -24924,7 +24924,7 @@
         <v>1</v>
       </c>
       <c r="E1289" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="1290">
@@ -24981,7 +24981,7 @@
         <v>1</v>
       </c>
       <c r="E1292" t="n">
-        <v>1260</v>
+        <v>1258.83870967742</v>
       </c>
     </row>
     <row r="1293">
@@ -25019,7 +25019,7 @@
         <v>1</v>
       </c>
       <c r="E1294" t="n">
-        <v>1458.870967741936</v>
+        <v>1460.032258064516</v>
       </c>
     </row>
     <row r="1295">
@@ -25228,7 +25228,7 @@
         <v>1</v>
       </c>
       <c r="E1305" t="n">
-        <v>1021.5</v>
+        <v>1022.5</v>
       </c>
     </row>
     <row r="1306">
@@ -25247,7 +25247,7 @@
         <v>1</v>
       </c>
       <c r="E1306" t="n">
-        <v>1260</v>
+        <v>1258.83870967742</v>
       </c>
     </row>
     <row r="1307">
@@ -25285,7 +25285,7 @@
         <v>1</v>
       </c>
       <c r="E1308" t="n">
-        <v>1458.870967741936</v>
+        <v>1459.451612903225</v>
       </c>
     </row>
     <row r="1309">
@@ -25304,7 +25304,7 @@
         <v>1</v>
       </c>
       <c r="E1309" t="n">
-        <v>1304.82258064516</v>
+        <v>1305.241935483871</v>
       </c>
     </row>
     <row r="1310">
@@ -25437,7 +25437,7 @@
         <v>1</v>
       </c>
       <c r="E1316" t="n">
-        <v>1095.612903225807</v>
+        <v>1095.311827956989</v>
       </c>
     </row>
     <row r="1317">
@@ -25456,7 +25456,7 @@
         <v>1</v>
       </c>
       <c r="E1317" t="n">
-        <v>1956.451612903224</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="1318">
@@ -25513,7 +25513,7 @@
         <v>1</v>
       </c>
       <c r="E1320" t="n">
-        <v>1258.83870967742</v>
+        <v>1259.41935483871</v>
       </c>
     </row>
     <row r="1321">
@@ -25551,7 +25551,7 @@
         <v>1</v>
       </c>
       <c r="E1322" t="n">
-        <v>1460.032258064516</v>
+        <v>1458.870967741936</v>
       </c>
     </row>
     <row r="1323">
@@ -25570,7 +25570,7 @@
         <v>1</v>
       </c>
       <c r="E1323" t="n">
-        <v>1305.241935483871</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="1324">
@@ -25589,7 +25589,7 @@
         <v>1</v>
       </c>
       <c r="E1324" t="n">
-        <v>1876.935483870968</v>
+        <v>1877.41935483871</v>
       </c>
     </row>
     <row r="1325">
@@ -25608,7 +25608,7 @@
         <v>1</v>
       </c>
       <c r="E1325" t="n">
-        <v>810.3870967741932</v>
+        <v>810.4838709677415</v>
       </c>
     </row>
     <row r="1326">
@@ -25703,7 +25703,7 @@
         <v>1</v>
       </c>
       <c r="E1330" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.462365591398</v>
       </c>
     </row>
     <row r="1331">
@@ -25722,7 +25722,7 @@
         <v>1</v>
       </c>
       <c r="E1331" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.182795698925</v>
       </c>
     </row>
     <row r="1332">
@@ -25817,7 +25817,7 @@
         <v>1</v>
       </c>
       <c r="E1336" t="n">
-        <v>1458.870967741936</v>
+        <v>1460.032258064516</v>
       </c>
     </row>
     <row r="1337">
@@ -25836,7 +25836,7 @@
         <v>1</v>
       </c>
       <c r="E1337" t="n">
-        <v>1305.66129032258</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="1338">
@@ -25855,7 +25855,7 @@
         <v>1</v>
       </c>
       <c r="E1338" t="n">
-        <v>1877.903225806452</v>
+        <v>1876.935483870968</v>
       </c>
     </row>
     <row r="1339">
@@ -25874,7 +25874,7 @@
         <v>1</v>
       </c>
       <c r="E1339" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="1340">
@@ -25969,7 +25969,7 @@
         <v>1</v>
       </c>
       <c r="E1344" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="1345">
@@ -25988,7 +25988,7 @@
         <v>1</v>
       </c>
       <c r="E1345" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="1346">
@@ -26102,7 +26102,7 @@
         <v>1</v>
       </c>
       <c r="E1351" t="n">
-        <v>1305.241935483871</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="1352">
@@ -26235,7 +26235,7 @@
         <v>1</v>
       </c>
       <c r="E1358" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.462365591398</v>
       </c>
     </row>
     <row r="1359">
@@ -26254,7 +26254,7 @@
         <v>1</v>
       </c>
       <c r="E1359" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.182795698925</v>
       </c>
     </row>
     <row r="1360">
@@ -26273,7 +26273,7 @@
         <v>1</v>
       </c>
       <c r="E1360" t="n">
-        <v>923</v>
+        <v>921.9999999999991</v>
       </c>
     </row>
     <row r="1361">
@@ -26311,7 +26311,7 @@
         <v>1</v>
       </c>
       <c r="E1362" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1363">
@@ -26330,7 +26330,7 @@
         <v>1</v>
       </c>
       <c r="E1363" t="n">
-        <v>1118.419354838709</v>
+        <v>1119.258064516129</v>
       </c>
     </row>
     <row r="1364">
@@ -26349,7 +26349,7 @@
         <v>1</v>
       </c>
       <c r="E1364" t="n">
-        <v>1459.451612903225</v>
+        <v>1458.870967741936</v>
       </c>
     </row>
     <row r="1365">
@@ -26501,7 +26501,7 @@
         <v>1</v>
       </c>
       <c r="E1372" t="n">
-        <v>1095.462365591398</v>
+        <v>1095.311827956989</v>
       </c>
     </row>
     <row r="1373">
@@ -26520,7 +26520,7 @@
         <v>1</v>
       </c>
       <c r="E1373" t="n">
-        <v>1956.182795698925</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="1374">
@@ -26558,7 +26558,7 @@
         <v>1</v>
       </c>
       <c r="E1375" t="n">
-        <v>1022.5</v>
+        <v>1021.5</v>
       </c>
     </row>
     <row r="1376">
@@ -26577,7 +26577,7 @@
         <v>1</v>
       </c>
       <c r="E1376" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1377">
@@ -26615,7 +26615,7 @@
         <v>1</v>
       </c>
       <c r="E1378" t="n">
-        <v>1459.451612903225</v>
+        <v>1458.870967741936</v>
       </c>
     </row>
     <row r="1379">
@@ -26634,7 +26634,7 @@
         <v>1</v>
       </c>
       <c r="E1379" t="n">
-        <v>1305.241935483871</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="1380">
@@ -26767,7 +26767,7 @@
         <v>1</v>
       </c>
       <c r="E1386" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="1387">
@@ -26786,7 +26786,7 @@
         <v>1</v>
       </c>
       <c r="E1387" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="1388">
@@ -26843,7 +26843,7 @@
         <v>1</v>
       </c>
       <c r="E1390" t="n">
-        <v>1260</v>
+        <v>1258.83870967742</v>
       </c>
     </row>
     <row r="1391">
@@ -26881,7 +26881,7 @@
         <v>1</v>
       </c>
       <c r="E1392" t="n">
-        <v>1458.870967741936</v>
+        <v>1460.032258064516</v>
       </c>
     </row>
     <row r="1393">
@@ -27090,7 +27090,7 @@
         <v>1</v>
       </c>
       <c r="E1403" t="n">
-        <v>1021.5</v>
+        <v>1022.5</v>
       </c>
     </row>
     <row r="1404">
@@ -27109,7 +27109,7 @@
         <v>1</v>
       </c>
       <c r="E1404" t="n">
-        <v>1260</v>
+        <v>1258.83870967742</v>
       </c>
     </row>
     <row r="1405">
@@ -27147,7 +27147,7 @@
         <v>1</v>
       </c>
       <c r="E1406" t="n">
-        <v>1458.870967741936</v>
+        <v>1459.451612903225</v>
       </c>
     </row>
     <row r="1407">
@@ -27166,7 +27166,7 @@
         <v>1</v>
       </c>
       <c r="E1407" t="n">
-        <v>1304.82258064516</v>
+        <v>1305.241935483871</v>
       </c>
     </row>
     <row r="1408">
@@ -27299,7 +27299,7 @@
         <v>1</v>
       </c>
       <c r="E1414" t="n">
-        <v>1095.612903225807</v>
+        <v>1095.311827956989</v>
       </c>
     </row>
     <row r="1415">
@@ -27318,7 +27318,7 @@
         <v>1</v>
       </c>
       <c r="E1415" t="n">
-        <v>1956.451612903224</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="1416">
@@ -27375,7 +27375,7 @@
         <v>1</v>
       </c>
       <c r="E1418" t="n">
-        <v>1258.83870967742</v>
+        <v>1259.41935483871</v>
       </c>
     </row>
     <row r="1419">
@@ -27413,7 +27413,7 @@
         <v>1</v>
       </c>
       <c r="E1420" t="n">
-        <v>1460.032258064516</v>
+        <v>1458.870967741936</v>
       </c>
     </row>
     <row r="1421">
@@ -27432,7 +27432,7 @@
         <v>1</v>
       </c>
       <c r="E1421" t="n">
-        <v>1305.241935483871</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="1422">
@@ -27451,7 +27451,7 @@
         <v>1</v>
       </c>
       <c r="E1422" t="n">
-        <v>1876.935483870968</v>
+        <v>1877.41935483871</v>
       </c>
     </row>
     <row r="1423">
@@ -27470,7 +27470,7 @@
         <v>1</v>
       </c>
       <c r="E1423" t="n">
-        <v>810.3870967741932</v>
+        <v>810.4838709677415</v>
       </c>
     </row>
     <row r="1424">
@@ -27565,7 +27565,7 @@
         <v>1</v>
       </c>
       <c r="E1428" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.462365591398</v>
       </c>
     </row>
     <row r="1429">
@@ -27584,7 +27584,7 @@
         <v>1</v>
       </c>
       <c r="E1429" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.182795698925</v>
       </c>
     </row>
     <row r="1430">
@@ -27679,7 +27679,7 @@
         <v>1</v>
       </c>
       <c r="E1434" t="n">
-        <v>1458.870967741936</v>
+        <v>1460.032258064516</v>
       </c>
     </row>
     <row r="1435">
@@ -27698,7 +27698,7 @@
         <v>1</v>
       </c>
       <c r="E1435" t="n">
-        <v>1305.66129032258</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="1436">
@@ -27717,7 +27717,7 @@
         <v>1</v>
       </c>
       <c r="E1436" t="n">
-        <v>1877.903225806452</v>
+        <v>1876.935483870968</v>
       </c>
     </row>
     <row r="1437">
@@ -27736,7 +27736,7 @@
         <v>1</v>
       </c>
       <c r="E1437" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="1438">
@@ -27831,7 +27831,7 @@
         <v>1</v>
       </c>
       <c r="E1442" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="1443">
@@ -27850,7 +27850,7 @@
         <v>1</v>
       </c>
       <c r="E1443" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="1444">
@@ -27964,7 +27964,7 @@
         <v>1</v>
       </c>
       <c r="E1449" t="n">
-        <v>1305.241935483871</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="1450">
@@ -28097,7 +28097,7 @@
         <v>1</v>
       </c>
       <c r="E1456" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.462365591398</v>
       </c>
     </row>
     <row r="1457">
@@ -28116,7 +28116,7 @@
         <v>1</v>
       </c>
       <c r="E1457" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.182795698925</v>
       </c>
     </row>
     <row r="1458">
@@ -28135,7 +28135,7 @@
         <v>1</v>
       </c>
       <c r="E1458" t="n">
-        <v>923</v>
+        <v>921.9999999999991</v>
       </c>
     </row>
     <row r="1459">
@@ -28173,7 +28173,7 @@
         <v>1</v>
       </c>
       <c r="E1460" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1461">
@@ -28192,7 +28192,7 @@
         <v>1</v>
       </c>
       <c r="E1461" t="n">
-        <v>1118.419354838709</v>
+        <v>1119.258064516129</v>
       </c>
     </row>
     <row r="1462">
@@ -28211,7 +28211,7 @@
         <v>1</v>
       </c>
       <c r="E1462" t="n">
-        <v>1459.451612903225</v>
+        <v>1458.870967741936</v>
       </c>
     </row>
     <row r="1463">
@@ -28363,7 +28363,7 @@
         <v>1</v>
       </c>
       <c r="E1470" t="n">
-        <v>1095.462365591398</v>
+        <v>1095.311827956989</v>
       </c>
     </row>
     <row r="1471">
@@ -28382,7 +28382,7 @@
         <v>1</v>
       </c>
       <c r="E1471" t="n">
-        <v>1956.182795698925</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="1472">
@@ -28420,7 +28420,7 @@
         <v>1</v>
       </c>
       <c r="E1473" t="n">
-        <v>1022.5</v>
+        <v>1021.5</v>
       </c>
     </row>
     <row r="1474">
@@ -28439,7 +28439,7 @@
         <v>1</v>
       </c>
       <c r="E1474" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1475">
@@ -28477,7 +28477,7 @@
         <v>1</v>
       </c>
       <c r="E1476" t="n">
-        <v>1459.451612903225</v>
+        <v>1458.870967741936</v>
       </c>
     </row>
     <row r="1477">
@@ -28496,7 +28496,7 @@
         <v>1</v>
       </c>
       <c r="E1477" t="n">
-        <v>1305.241935483871</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="1478">
@@ -28629,7 +28629,7 @@
         <v>1</v>
       </c>
       <c r="E1484" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="1485">
@@ -28648,7 +28648,7 @@
         <v>1</v>
       </c>
       <c r="E1485" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="1486">
@@ -28705,7 +28705,7 @@
         <v>1</v>
       </c>
       <c r="E1488" t="n">
-        <v>1260</v>
+        <v>1258.83870967742</v>
       </c>
     </row>
     <row r="1489">
@@ -28743,7 +28743,7 @@
         <v>1</v>
       </c>
       <c r="E1490" t="n">
-        <v>1458.870967741936</v>
+        <v>1460.032258064516</v>
       </c>
     </row>
     <row r="1491">
@@ -28952,7 +28952,7 @@
         <v>1</v>
       </c>
       <c r="E1501" t="n">
-        <v>1021.5</v>
+        <v>1022.5</v>
       </c>
     </row>
     <row r="1502">
@@ -28971,7 +28971,7 @@
         <v>1</v>
       </c>
       <c r="E1502" t="n">
-        <v>1260</v>
+        <v>1258.83870967742</v>
       </c>
     </row>
     <row r="1503">
@@ -29009,7 +29009,7 @@
         <v>1</v>
       </c>
       <c r="E1504" t="n">
-        <v>1458.870967741936</v>
+        <v>1459.451612903225</v>
       </c>
     </row>
     <row r="1505">
@@ -29028,7 +29028,7 @@
         <v>1</v>
       </c>
       <c r="E1505" t="n">
-        <v>1304.82258064516</v>
+        <v>1305.241935483871</v>
       </c>
     </row>
     <row r="1506">
@@ -29161,7 +29161,7 @@
         <v>1</v>
       </c>
       <c r="E1512" t="n">
-        <v>1095.612903225807</v>
+        <v>1095.311827956989</v>
       </c>
     </row>
     <row r="1513">
@@ -29180,7 +29180,7 @@
         <v>1</v>
       </c>
       <c r="E1513" t="n">
-        <v>1956.451612903224</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="1514">
@@ -29237,7 +29237,7 @@
         <v>1</v>
       </c>
       <c r="E1516" t="n">
-        <v>1258.83870967742</v>
+        <v>1259.41935483871</v>
       </c>
     </row>
     <row r="1517">
@@ -29275,7 +29275,7 @@
         <v>1</v>
       </c>
       <c r="E1518" t="n">
-        <v>1460.032258064516</v>
+        <v>1458.870967741936</v>
       </c>
     </row>
     <row r="1519">
@@ -29294,7 +29294,7 @@
         <v>1</v>
       </c>
       <c r="E1519" t="n">
-        <v>1305.241935483871</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="1520">
@@ -29313,7 +29313,7 @@
         <v>1</v>
       </c>
       <c r="E1520" t="n">
-        <v>1876.935483870968</v>
+        <v>1877.41935483871</v>
       </c>
     </row>
     <row r="1521">
@@ -29332,7 +29332,7 @@
         <v>1</v>
       </c>
       <c r="E1521" t="n">
-        <v>810.3870967741932</v>
+        <v>810.4838709677415</v>
       </c>
     </row>
     <row r="1522">
@@ -29427,7 +29427,7 @@
         <v>1</v>
       </c>
       <c r="E1526" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.462365591398</v>
       </c>
     </row>
     <row r="1527">
@@ -29446,7 +29446,7 @@
         <v>1</v>
       </c>
       <c r="E1527" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.182795698925</v>
       </c>
     </row>
     <row r="1528">
@@ -29541,7 +29541,7 @@
         <v>1</v>
       </c>
       <c r="E1532" t="n">
-        <v>1458.870967741936</v>
+        <v>1460.032258064516</v>
       </c>
     </row>
     <row r="1533">
@@ -29560,7 +29560,7 @@
         <v>1</v>
       </c>
       <c r="E1533" t="n">
-        <v>1305.66129032258</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="1534">
@@ -29579,7 +29579,7 @@
         <v>1</v>
       </c>
       <c r="E1534" t="n">
-        <v>1877.903225806452</v>
+        <v>1876.935483870968</v>
       </c>
     </row>
     <row r="1535">
@@ -29598,7 +29598,7 @@
         <v>1</v>
       </c>
       <c r="E1535" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="1536">
@@ -29693,7 +29693,7 @@
         <v>1</v>
       </c>
       <c r="E1540" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="1541">
@@ -29712,7 +29712,7 @@
         <v>1</v>
       </c>
       <c r="E1541" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="1542">
@@ -29826,7 +29826,7 @@
         <v>1</v>
       </c>
       <c r="E1547" t="n">
-        <v>1305.241935483871</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="1548">
@@ -29959,7 +29959,7 @@
         <v>1</v>
       </c>
       <c r="E1554" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.462365591398</v>
       </c>
     </row>
     <row r="1555">
@@ -29978,7 +29978,7 @@
         <v>1</v>
       </c>
       <c r="E1555" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.182795698925</v>
       </c>
     </row>
     <row r="1556">
@@ -29997,7 +29997,7 @@
         <v>1</v>
       </c>
       <c r="E1556" t="n">
-        <v>923</v>
+        <v>921.9999999999991</v>
       </c>
     </row>
     <row r="1557">
@@ -30035,7 +30035,7 @@
         <v>1</v>
       </c>
       <c r="E1558" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1559">
@@ -30054,7 +30054,7 @@
         <v>1</v>
       </c>
       <c r="E1559" t="n">
-        <v>1118.419354838709</v>
+        <v>1119.258064516129</v>
       </c>
     </row>
     <row r="1560">
@@ -30073,7 +30073,7 @@
         <v>1</v>
       </c>
       <c r="E1560" t="n">
-        <v>1459.451612903225</v>
+        <v>1458.870967741936</v>
       </c>
     </row>
     <row r="1561">
@@ -30225,7 +30225,7 @@
         <v>1</v>
       </c>
       <c r="E1568" t="n">
-        <v>1095.462365591398</v>
+        <v>1095.311827956989</v>
       </c>
     </row>
     <row r="1569">
@@ -30244,7 +30244,7 @@
         <v>1</v>
       </c>
       <c r="E1569" t="n">
-        <v>1956.182795698925</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="1570">
@@ -30282,7 +30282,7 @@
         <v>1</v>
       </c>
       <c r="E1571" t="n">
-        <v>1022.5</v>
+        <v>1021.5</v>
       </c>
     </row>
     <row r="1572">
@@ -30301,7 +30301,7 @@
         <v>1</v>
       </c>
       <c r="E1572" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1573">
@@ -30339,7 +30339,7 @@
         <v>1</v>
       </c>
       <c r="E1574" t="n">
-        <v>1459.451612903225</v>
+        <v>1458.870967741936</v>
       </c>
     </row>
     <row r="1575">
@@ -30358,7 +30358,7 @@
         <v>1</v>
       </c>
       <c r="E1575" t="n">
-        <v>1305.241935483871</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="1576">
@@ -30491,7 +30491,7 @@
         <v>1</v>
       </c>
       <c r="E1582" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="1583">
@@ -30510,7 +30510,7 @@
         <v>1</v>
       </c>
       <c r="E1583" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="1584">
@@ -30567,7 +30567,7 @@
         <v>1</v>
       </c>
       <c r="E1586" t="n">
-        <v>1260</v>
+        <v>1258.83870967742</v>
       </c>
     </row>
     <row r="1587">
@@ -30605,7 +30605,7 @@
         <v>1</v>
       </c>
       <c r="E1588" t="n">
-        <v>1458.870967741936</v>
+        <v>1460.032258064516</v>
       </c>
     </row>
     <row r="1589">
@@ -30814,7 +30814,7 @@
         <v>1</v>
       </c>
       <c r="E1599" t="n">
-        <v>1021.5</v>
+        <v>1022.5</v>
       </c>
     </row>
     <row r="1600">
@@ -30833,7 +30833,7 @@
         <v>1</v>
       </c>
       <c r="E1600" t="n">
-        <v>1260</v>
+        <v>1258.83870967742</v>
       </c>
     </row>
     <row r="1601">
@@ -30871,7 +30871,7 @@
         <v>1</v>
       </c>
       <c r="E1602" t="n">
-        <v>1458.870967741936</v>
+        <v>1459.451612903225</v>
       </c>
     </row>
     <row r="1603">
@@ -30890,7 +30890,7 @@
         <v>1</v>
       </c>
       <c r="E1603" t="n">
-        <v>1304.82258064516</v>
+        <v>1305.241935483871</v>
       </c>
     </row>
     <row r="1604">
@@ -31023,7 +31023,7 @@
         <v>1</v>
       </c>
       <c r="E1610" t="n">
-        <v>1095.612903225807</v>
+        <v>1095.311827956989</v>
       </c>
     </row>
     <row r="1611">
@@ -31042,7 +31042,7 @@
         <v>1</v>
       </c>
       <c r="E1611" t="n">
-        <v>1956.451612903224</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="1612">
@@ -31099,7 +31099,7 @@
         <v>1</v>
       </c>
       <c r="E1614" t="n">
-        <v>1258.83870967742</v>
+        <v>1259.41935483871</v>
       </c>
     </row>
     <row r="1615">
@@ -31137,7 +31137,7 @@
         <v>1</v>
       </c>
       <c r="E1616" t="n">
-        <v>1460.032258064516</v>
+        <v>1458.870967741936</v>
       </c>
     </row>
     <row r="1617">
@@ -31156,7 +31156,7 @@
         <v>1</v>
       </c>
       <c r="E1617" t="n">
-        <v>1305.241935483871</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="1618">
@@ -31175,7 +31175,7 @@
         <v>1</v>
       </c>
       <c r="E1618" t="n">
-        <v>1876.935483870968</v>
+        <v>1877.41935483871</v>
       </c>
     </row>
     <row r="1619">
@@ -31194,7 +31194,7 @@
         <v>1</v>
       </c>
       <c r="E1619" t="n">
-        <v>810.3870967741932</v>
+        <v>810.4838709677415</v>
       </c>
     </row>
     <row r="1620">
@@ -31289,7 +31289,7 @@
         <v>1</v>
       </c>
       <c r="E1624" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.462365591398</v>
       </c>
     </row>
     <row r="1625">
@@ -31308,7 +31308,7 @@
         <v>1</v>
       </c>
       <c r="E1625" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.182795698925</v>
       </c>
     </row>
     <row r="1626">
@@ -31403,7 +31403,7 @@
         <v>1</v>
       </c>
       <c r="E1630" t="n">
-        <v>1458.870967741936</v>
+        <v>1460.032258064516</v>
       </c>
     </row>
     <row r="1631">
@@ -31422,7 +31422,7 @@
         <v>1</v>
       </c>
       <c r="E1631" t="n">
-        <v>1305.66129032258</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="1632">
@@ -31441,7 +31441,7 @@
         <v>1</v>
       </c>
       <c r="E1632" t="n">
-        <v>1877.903225806452</v>
+        <v>1876.935483870968</v>
       </c>
     </row>
     <row r="1633">
@@ -31460,7 +31460,7 @@
         <v>1</v>
       </c>
       <c r="E1633" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="1634">
@@ -31555,7 +31555,7 @@
         <v>1</v>
       </c>
       <c r="E1638" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="1639">
@@ -31574,7 +31574,7 @@
         <v>1</v>
       </c>
       <c r="E1639" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="1640">
@@ -31688,7 +31688,7 @@
         <v>1</v>
       </c>
       <c r="E1645" t="n">
-        <v>1305.241935483871</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="1646">
@@ -31821,7 +31821,7 @@
         <v>1</v>
       </c>
       <c r="E1652" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.462365591398</v>
       </c>
     </row>
     <row r="1653">
@@ -31840,7 +31840,7 @@
         <v>1</v>
       </c>
       <c r="E1653" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.182795698925</v>
       </c>
     </row>
     <row r="1654">
@@ -31859,7 +31859,7 @@
         <v>1</v>
       </c>
       <c r="E1654" t="n">
-        <v>923</v>
+        <v>921.9999999999991</v>
       </c>
     </row>
     <row r="1655">
@@ -31897,7 +31897,7 @@
         <v>1</v>
       </c>
       <c r="E1656" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1657">
@@ -31916,7 +31916,7 @@
         <v>1</v>
       </c>
       <c r="E1657" t="n">
-        <v>1118.419354838709</v>
+        <v>1119.258064516129</v>
       </c>
     </row>
     <row r="1658">
@@ -31935,7 +31935,7 @@
         <v>1</v>
       </c>
       <c r="E1658" t="n">
-        <v>1459.451612903225</v>
+        <v>1458.870967741936</v>
       </c>
     </row>
     <row r="1659">
@@ -32087,7 +32087,7 @@
         <v>1</v>
       </c>
       <c r="E1666" t="n">
-        <v>1095.462365591398</v>
+        <v>1095.311827956989</v>
       </c>
     </row>
     <row r="1667">
@@ -32106,7 +32106,7 @@
         <v>1</v>
       </c>
       <c r="E1667" t="n">
-        <v>1956.182795698925</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="1668">
@@ -32144,7 +32144,7 @@
         <v>1</v>
       </c>
       <c r="E1669" t="n">
-        <v>1022.5</v>
+        <v>1021.5</v>
       </c>
     </row>
     <row r="1670">
@@ -32163,7 +32163,7 @@
         <v>1</v>
       </c>
       <c r="E1670" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1671">
@@ -32201,7 +32201,7 @@
         <v>1</v>
       </c>
       <c r="E1672" t="n">
-        <v>1459.451612903225</v>
+        <v>1458.870967741936</v>
       </c>
     </row>
     <row r="1673">
@@ -32220,7 +32220,7 @@
         <v>1</v>
       </c>
       <c r="E1673" t="n">
-        <v>1305.241935483871</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="1674">
@@ -32353,7 +32353,7 @@
         <v>1</v>
       </c>
       <c r="E1680" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="1681">
@@ -32372,7 +32372,7 @@
         <v>1</v>
       </c>
       <c r="E1681" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="1682">
@@ -32429,7 +32429,7 @@
         <v>1</v>
       </c>
       <c r="E1684" t="n">
-        <v>1260</v>
+        <v>1258.83870967742</v>
       </c>
     </row>
     <row r="1685">
@@ -32467,7 +32467,7 @@
         <v>1</v>
       </c>
       <c r="E1686" t="n">
-        <v>1458.870967741936</v>
+        <v>1460.032258064516</v>
       </c>
     </row>
     <row r="1687">
@@ -32676,7 +32676,7 @@
         <v>1</v>
       </c>
       <c r="E1697" t="n">
-        <v>1021.5</v>
+        <v>1022.5</v>
       </c>
     </row>
     <row r="1698">
@@ -32695,7 +32695,7 @@
         <v>1</v>
       </c>
       <c r="E1698" t="n">
-        <v>1260</v>
+        <v>1258.83870967742</v>
       </c>
     </row>
     <row r="1699">
@@ -32733,7 +32733,7 @@
         <v>1</v>
       </c>
       <c r="E1700" t="n">
-        <v>1458.870967741936</v>
+        <v>1459.451612903225</v>
       </c>
     </row>
     <row r="1701">
@@ -32752,7 +32752,7 @@
         <v>1</v>
       </c>
       <c r="E1701" t="n">
-        <v>1304.82258064516</v>
+        <v>1305.241935483871</v>
       </c>
     </row>
     <row r="1702">
@@ -32885,7 +32885,7 @@
         <v>1</v>
       </c>
       <c r="E1708" t="n">
-        <v>1095.612903225807</v>
+        <v>1095.311827956989</v>
       </c>
     </row>
     <row r="1709">
@@ -32904,7 +32904,7 @@
         <v>1</v>
       </c>
       <c r="E1709" t="n">
-        <v>1956.451612903224</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="1710">
@@ -32961,7 +32961,7 @@
         <v>1</v>
       </c>
       <c r="E1712" t="n">
-        <v>1258.83870967742</v>
+        <v>1259.41935483871</v>
       </c>
     </row>
     <row r="1713">
@@ -32999,7 +32999,7 @@
         <v>1</v>
       </c>
       <c r="E1714" t="n">
-        <v>1460.032258064516</v>
+        <v>1458.870967741936</v>
       </c>
     </row>
     <row r="1715">
@@ -33018,7 +33018,7 @@
         <v>1</v>
       </c>
       <c r="E1715" t="n">
-        <v>1305.241935483871</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="1716">
@@ -33037,7 +33037,7 @@
         <v>1</v>
       </c>
       <c r="E1716" t="n">
-        <v>1876.935483870968</v>
+        <v>1877.41935483871</v>
       </c>
     </row>
     <row r="1717">
@@ -33056,7 +33056,7 @@
         <v>1</v>
       </c>
       <c r="E1717" t="n">
-        <v>810.3870967741932</v>
+        <v>810.4838709677415</v>
       </c>
     </row>
     <row r="1718">
@@ -33151,7 +33151,7 @@
         <v>1</v>
       </c>
       <c r="E1722" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.462365591398</v>
       </c>
     </row>
     <row r="1723">
@@ -33170,7 +33170,7 @@
         <v>1</v>
       </c>
       <c r="E1723" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.182795698925</v>
       </c>
     </row>
     <row r="1724">
@@ -33265,7 +33265,7 @@
         <v>1</v>
       </c>
       <c r="E1728" t="n">
-        <v>1458.870967741936</v>
+        <v>1460.032258064516</v>
       </c>
     </row>
     <row r="1729">
@@ -33284,7 +33284,7 @@
         <v>1</v>
       </c>
       <c r="E1729" t="n">
-        <v>1305.66129032258</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="1730">
@@ -33303,7 +33303,7 @@
         <v>1</v>
       </c>
       <c r="E1730" t="n">
-        <v>1877.903225806452</v>
+        <v>1876.935483870968</v>
       </c>
     </row>
     <row r="1731">
@@ -33322,7 +33322,7 @@
         <v>1</v>
       </c>
       <c r="E1731" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="1732">
@@ -33417,7 +33417,7 @@
         <v>1</v>
       </c>
       <c r="E1736" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="1737">
@@ -33436,7 +33436,7 @@
         <v>1</v>
       </c>
       <c r="E1737" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="1738">
@@ -33550,7 +33550,7 @@
         <v>1</v>
       </c>
       <c r="E1743" t="n">
-        <v>1305.241935483871</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="1744">
@@ -33683,7 +33683,7 @@
         <v>1</v>
       </c>
       <c r="E1750" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.462365591398</v>
       </c>
     </row>
     <row r="1751">
@@ -33702,7 +33702,7 @@
         <v>1</v>
       </c>
       <c r="E1751" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.182795698925</v>
       </c>
     </row>
     <row r="1752">
@@ -33721,7 +33721,7 @@
         <v>1</v>
       </c>
       <c r="E1752" t="n">
-        <v>923</v>
+        <v>921.9999999999991</v>
       </c>
     </row>
     <row r="1753">
@@ -33759,7 +33759,7 @@
         <v>1</v>
       </c>
       <c r="E1754" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1755">
@@ -33778,7 +33778,7 @@
         <v>1</v>
       </c>
       <c r="E1755" t="n">
-        <v>1118.419354838709</v>
+        <v>1119.258064516129</v>
       </c>
     </row>
     <row r="1756">
@@ -33797,7 +33797,7 @@
         <v>1</v>
       </c>
       <c r="E1756" t="n">
-        <v>1459.451612903225</v>
+        <v>1458.870967741936</v>
       </c>
     </row>
     <row r="1757">
@@ -33949,7 +33949,7 @@
         <v>1</v>
       </c>
       <c r="E1764" t="n">
-        <v>1095.462365591398</v>
+        <v>1095.311827956989</v>
       </c>
     </row>
     <row r="1765">
@@ -33968,7 +33968,7 @@
         <v>1</v>
       </c>
       <c r="E1765" t="n">
-        <v>1956.182795698925</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="1766">
@@ -34006,7 +34006,7 @@
         <v>1</v>
       </c>
       <c r="E1767" t="n">
-        <v>1022.5</v>
+        <v>1021.5</v>
       </c>
     </row>
     <row r="1768">
@@ -34025,7 +34025,7 @@
         <v>1</v>
       </c>
       <c r="E1768" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1769">
@@ -34063,7 +34063,7 @@
         <v>1</v>
       </c>
       <c r="E1770" t="n">
-        <v>1459.451612903225</v>
+        <v>1458.870967741936</v>
       </c>
     </row>
     <row r="1771">
@@ -34082,7 +34082,7 @@
         <v>1</v>
       </c>
       <c r="E1771" t="n">
-        <v>1305.241935483871</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="1772">
@@ -34215,7 +34215,7 @@
         <v>1</v>
       </c>
       <c r="E1778" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="1779">
@@ -34234,7 +34234,7 @@
         <v>1</v>
       </c>
       <c r="E1779" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="1780">
@@ -34291,7 +34291,7 @@
         <v>1</v>
       </c>
       <c r="E1782" t="n">
-        <v>1260</v>
+        <v>1258.83870967742</v>
       </c>
     </row>
     <row r="1783">
@@ -34329,7 +34329,7 @@
         <v>1</v>
       </c>
       <c r="E1784" t="n">
-        <v>1458.870967741936</v>
+        <v>1460.032258064516</v>
       </c>
     </row>
     <row r="1785">
@@ -34538,7 +34538,7 @@
         <v>1</v>
       </c>
       <c r="E1795" t="n">
-        <v>1021.5</v>
+        <v>1022.5</v>
       </c>
     </row>
     <row r="1796">
@@ -34557,7 +34557,7 @@
         <v>1</v>
       </c>
       <c r="E1796" t="n">
-        <v>1260</v>
+        <v>1258.83870967742</v>
       </c>
     </row>
     <row r="1797">
@@ -34595,7 +34595,7 @@
         <v>1</v>
       </c>
       <c r="E1798" t="n">
-        <v>1458.870967741936</v>
+        <v>1459.451612903225</v>
       </c>
     </row>
     <row r="1799">
@@ -34614,7 +34614,7 @@
         <v>1</v>
       </c>
       <c r="E1799" t="n">
-        <v>1304.82258064516</v>
+        <v>1305.241935483871</v>
       </c>
     </row>
     <row r="1800">
@@ -34747,7 +34747,7 @@
         <v>1</v>
       </c>
       <c r="E1806" t="n">
-        <v>1095.612903225807</v>
+        <v>1095.311827956989</v>
       </c>
     </row>
     <row r="1807">
@@ -34766,7 +34766,7 @@
         <v>1</v>
       </c>
       <c r="E1807" t="n">
-        <v>1956.451612903224</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="1808">
@@ -34823,7 +34823,7 @@
         <v>1</v>
       </c>
       <c r="E1810" t="n">
-        <v>1258.83870967742</v>
+        <v>1259.41935483871</v>
       </c>
     </row>
     <row r="1811">
@@ -34861,7 +34861,7 @@
         <v>1</v>
       </c>
       <c r="E1812" t="n">
-        <v>1460.032258064516</v>
+        <v>1458.870967741936</v>
       </c>
     </row>
     <row r="1813">
@@ -34880,7 +34880,7 @@
         <v>1</v>
       </c>
       <c r="E1813" t="n">
-        <v>1305.241935483871</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="1814">
@@ -34899,7 +34899,7 @@
         <v>1</v>
       </c>
       <c r="E1814" t="n">
-        <v>1876.935483870968</v>
+        <v>1877.41935483871</v>
       </c>
     </row>
     <row r="1815">
@@ -34918,7 +34918,7 @@
         <v>1</v>
       </c>
       <c r="E1815" t="n">
-        <v>810.3870967741932</v>
+        <v>810.4838709677415</v>
       </c>
     </row>
     <row r="1816">
@@ -35013,7 +35013,7 @@
         <v>1</v>
       </c>
       <c r="E1820" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.462365591398</v>
       </c>
     </row>
     <row r="1821">
@@ -35032,7 +35032,7 @@
         <v>1</v>
       </c>
       <c r="E1821" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.182795698925</v>
       </c>
     </row>
     <row r="1822">
@@ -35127,7 +35127,7 @@
         <v>1</v>
       </c>
       <c r="E1826" t="n">
-        <v>1458.870967741936</v>
+        <v>1460.032258064516</v>
       </c>
     </row>
     <row r="1827">
@@ -35146,7 +35146,7 @@
         <v>1</v>
       </c>
       <c r="E1827" t="n">
-        <v>1305.66129032258</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="1828">
@@ -35165,7 +35165,7 @@
         <v>1</v>
       </c>
       <c r="E1828" t="n">
-        <v>1877.903225806452</v>
+        <v>1876.935483870968</v>
       </c>
     </row>
     <row r="1829">
@@ -35184,7 +35184,7 @@
         <v>1</v>
       </c>
       <c r="E1829" t="n">
-        <v>810.5806451612916</v>
+        <v>810.3870967741932</v>
       </c>
     </row>
     <row r="1830">
@@ -35279,7 +35279,7 @@
         <v>1</v>
       </c>
       <c r="E1834" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="1835">
@@ -35298,7 +35298,7 @@
         <v>1</v>
       </c>
       <c r="E1835" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="1836">
@@ -35412,7 +35412,7 @@
         <v>1</v>
       </c>
       <c r="E1841" t="n">
-        <v>1305.241935483871</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="1842">
@@ -35545,7 +35545,7 @@
         <v>1</v>
       </c>
       <c r="E1848" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.462365591398</v>
       </c>
     </row>
     <row r="1849">
@@ -35564,7 +35564,7 @@
         <v>1</v>
       </c>
       <c r="E1849" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.182795698925</v>
       </c>
     </row>
     <row r="1850">
@@ -35583,7 +35583,7 @@
         <v>1</v>
       </c>
       <c r="E1850" t="n">
-        <v>923</v>
+        <v>921.9999999999991</v>
       </c>
     </row>
     <row r="1851">
@@ -35621,7 +35621,7 @@
         <v>1</v>
       </c>
       <c r="E1852" t="n">
-        <v>1258.83870967742</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1853">
@@ -35640,7 +35640,7 @@
         <v>1</v>
       </c>
       <c r="E1853" t="n">
-        <v>1118.419354838709</v>
+        <v>1119.258064516129</v>
       </c>
     </row>
     <row r="1854">
@@ -35659,7 +35659,7 @@
         <v>1</v>
       </c>
       <c r="E1854" t="n">
-        <v>1459.451612903225</v>
+        <v>1458.870967741936</v>
       </c>
     </row>
     <row r="1855">
@@ -35811,7 +35811,7 @@
         <v>1</v>
       </c>
       <c r="E1862" t="n">
-        <v>1095.462365591398</v>
+        <v>1095.311827956989</v>
       </c>
     </row>
     <row r="1863">
@@ -35830,7 +35830,7 @@
         <v>1</v>
       </c>
       <c r="E1863" t="n">
-        <v>1956.182795698925</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="1864">
@@ -35925,7 +35925,7 @@
         <v>1</v>
       </c>
       <c r="E1868" t="n">
-        <v>1459.451612903225</v>
+        <v>1458.870967741936</v>
       </c>
     </row>
     <row r="1869">
@@ -35944,7 +35944,7 @@
         <v>1</v>
       </c>
       <c r="E1869" t="n">
-        <v>1305.241935483871</v>
+        <v>1304.822580645264</v>
       </c>
     </row>
     <row r="1870">
@@ -35982,7 +35982,7 @@
         <v>1</v>
       </c>
       <c r="E1871" t="n">
-        <v>810.3870967741932</v>
+        <v>810.4838709677415</v>
       </c>
     </row>
     <row r="1872">
@@ -36001,7 +36001,7 @@
         <v>1</v>
       </c>
       <c r="E1872" t="n">
-        <v>2175</v>
+        <v>2175.483870967741</v>
       </c>
     </row>
     <row r="1873">
@@ -36077,7 +36077,7 @@
         <v>1</v>
       </c>
       <c r="E1876" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.462365591398</v>
       </c>
     </row>
     <row r="1877">
@@ -36096,7 +36096,7 @@
         <v>1</v>
       </c>
       <c r="E1877" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.182795698925</v>
       </c>
     </row>
     <row r="1878">
@@ -36134,7 +36134,7 @@
         <v>1</v>
       </c>
       <c r="E1879" t="n">
-        <v>1021.5</v>
+        <v>1022.5</v>
       </c>
     </row>
     <row r="1880">
@@ -36153,7 +36153,7 @@
         <v>1</v>
       </c>
       <c r="E1880" t="n">
-        <v>1260</v>
+        <v>1258.83870967742</v>
       </c>
     </row>
     <row r="1881">
@@ -36172,7 +36172,7 @@
         <v>1</v>
       </c>
       <c r="E1881" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="1882">
@@ -36191,7 +36191,7 @@
         <v>1</v>
       </c>
       <c r="E1882" t="n">
-        <v>1458.870967741936</v>
+        <v>1459.451612903225</v>
       </c>
     </row>
     <row r="1883">
@@ -36210,7 +36210,7 @@
         <v>1</v>
       </c>
       <c r="E1883" t="n">
-        <v>1304.82258064516</v>
+        <v>1304.822580645161</v>
       </c>
     </row>
     <row r="1884">
@@ -36343,7 +36343,7 @@
         <v>1</v>
       </c>
       <c r="E1890" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.462365591398</v>
       </c>
     </row>
     <row r="1891">
@@ -36362,7 +36362,7 @@
         <v>1</v>
       </c>
       <c r="E1891" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.182795698925</v>
       </c>
     </row>
     <row r="1892">
@@ -36400,7 +36400,7 @@
         <v>1</v>
       </c>
       <c r="E1893" t="n">
-        <v>1021.5</v>
+        <v>1022.5</v>
       </c>
     </row>
     <row r="1894">
@@ -36419,7 +36419,7 @@
         <v>1</v>
       </c>
       <c r="E1894" t="n">
-        <v>1260</v>
+        <v>1258.83870967742</v>
       </c>
     </row>
     <row r="1895">
@@ -36476,7 +36476,7 @@
         <v>1</v>
       </c>
       <c r="E1897" t="n">
-        <v>1304.82258064516</v>
+        <v>1304.822580645161</v>
       </c>
     </row>
     <row r="1898">
@@ -36514,7 +36514,7 @@
         <v>1</v>
       </c>
       <c r="E1899" t="n">
-        <v>810.3870967741932</v>
+        <v>810.4838709677415</v>
       </c>
     </row>
     <row r="1900">
@@ -36533,7 +36533,7 @@
         <v>1</v>
       </c>
       <c r="E1900" t="n">
-        <v>2175</v>
+        <v>2175.483870967742</v>
       </c>
     </row>
     <row r="1901">
@@ -36609,7 +36609,7 @@
         <v>1</v>
       </c>
       <c r="E1904" t="n">
-        <v>1095.612903225807</v>
+        <v>1095.462365591398</v>
       </c>
     </row>
     <row r="1905">
@@ -36628,7 +36628,7 @@
         <v>1</v>
       </c>
       <c r="E1905" t="n">
-        <v>1956.451612903224</v>
+        <v>1956.182795698925</v>
       </c>
     </row>
     <row r="1906">
@@ -36666,7 +36666,7 @@
         <v>1</v>
       </c>
       <c r="E1907" t="n">
-        <v>1021.5</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="1908">
@@ -36704,7 +36704,7 @@
         <v>1</v>
       </c>
       <c r="E1909" t="n">
-        <v>1118.83870967742</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="1910">
@@ -36723,7 +36723,7 @@
         <v>1</v>
       </c>
       <c r="E1910" t="n">
-        <v>1460.032258064516</v>
+        <v>1459.16129032258</v>
       </c>
     </row>
     <row r="1911">
@@ -36761,7 +36761,7 @@
         <v>1</v>
       </c>
       <c r="E1912" t="n">
-        <v>1876.935483870968</v>
+        <v>1877.41935483871</v>
       </c>
     </row>
     <row r="1913">
@@ -36780,7 +36780,7 @@
         <v>1</v>
       </c>
       <c r="E1913" t="n">
-        <v>810.3870967741932</v>
+        <v>810.4838709677415</v>
       </c>
     </row>
     <row r="1914">
@@ -36875,7 +36875,7 @@
         <v>1</v>
       </c>
       <c r="E1918" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.387096774193</v>
       </c>
     </row>
     <row r="1919">
@@ -36894,7 +36894,7 @@
         <v>1</v>
       </c>
       <c r="E1919" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.048387096774</v>
       </c>
     </row>
     <row r="1920">
@@ -36932,7 +36932,7 @@
         <v>1</v>
       </c>
       <c r="E1921" t="n">
-        <v>1021.5</v>
+        <v>1022.5</v>
       </c>
     </row>
     <row r="1922">
@@ -37008,7 +37008,7 @@
         <v>1</v>
       </c>
       <c r="E1925" t="n">
-        <v>1305.66129032258</v>
+        <v>1304.822580645161</v>
       </c>
     </row>
     <row r="1926">
@@ -37027,7 +37027,7 @@
         <v>1</v>
       </c>
       <c r="E1926" t="n">
-        <v>1877.903225806452</v>
+        <v>1876.935483870968</v>
       </c>
     </row>
     <row r="1927">
@@ -37046,7 +37046,7 @@
         <v>1</v>
       </c>
       <c r="E1927" t="n">
-        <v>810.5806451612916</v>
+        <v>810.4838709677415</v>
       </c>
     </row>
     <row r="1928">
@@ -37065,7 +37065,7 @@
         <v>1</v>
       </c>
       <c r="E1928" t="n">
-        <v>2175</v>
+        <v>2175.483870967742</v>
       </c>
     </row>
     <row r="1929">
@@ -37141,7 +37141,7 @@
         <v>1</v>
       </c>
       <c r="E1932" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.462365591398</v>
       </c>
     </row>
     <row r="1933">
@@ -37160,7 +37160,7 @@
         <v>1</v>
       </c>
       <c r="E1933" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.182795698925</v>
       </c>
     </row>
     <row r="1934">
@@ -37198,7 +37198,7 @@
         <v>1</v>
       </c>
       <c r="E1935" t="n">
-        <v>1022.5</v>
+        <v>1021.5</v>
       </c>
     </row>
     <row r="1936">
@@ -37255,7 +37255,7 @@
         <v>1</v>
       </c>
       <c r="E1938" t="n">
-        <v>1459.451612903225</v>
+        <v>1460.032258064516</v>
       </c>
     </row>
     <row r="1939">
@@ -37407,7 +37407,7 @@
         <v>1</v>
       </c>
       <c r="E1946" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.462365591398</v>
       </c>
     </row>
     <row r="1947">
@@ -37426,7 +37426,7 @@
         <v>1</v>
       </c>
       <c r="E1947" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.182795698925</v>
       </c>
     </row>
     <row r="1948">
@@ -37521,7 +37521,7 @@
         <v>1</v>
       </c>
       <c r="E1952" t="n">
-        <v>1459.451612903225</v>
+        <v>1458.870967741936</v>
       </c>
     </row>
     <row r="1953">
@@ -37540,7 +37540,7 @@
         <v>1</v>
       </c>
       <c r="E1953" t="n">
-        <v>1304.82258064516</v>
+        <v>1304.822580645161</v>
       </c>
     </row>
     <row r="1954">
@@ -37559,7 +37559,7 @@
         <v>1</v>
       </c>
       <c r="E1954" t="n">
-        <v>1876.935483870968</v>
+        <v>1877.41935483871</v>
       </c>
     </row>
     <row r="1955">
@@ -37578,7 +37578,7 @@
         <v>1</v>
       </c>
       <c r="E1955" t="n">
-        <v>810.3870967741932</v>
+        <v>810.4838709677415</v>
       </c>
     </row>
     <row r="1956">
@@ -37711,7 +37711,7 @@
         <v>1</v>
       </c>
       <c r="E1962" t="n">
-        <v>921.9999999999991</v>
+        <v>922.0000000001046</v>
       </c>
     </row>
     <row r="1963">
@@ -37806,7 +37806,7 @@
         <v>1</v>
       </c>
       <c r="E1967" t="n">
-        <v>1305.241935483871</v>
+        <v>1305.24193548387</v>
       </c>
     </row>
     <row r="1968">
@@ -37977,7 +37977,7 @@
         <v>1</v>
       </c>
       <c r="E1976" t="n">
-        <v>921.9999999999991</v>
+        <v>922</v>
       </c>
     </row>
     <row r="1977">
@@ -38034,7 +38034,7 @@
         <v>1</v>
       </c>
       <c r="E1979" t="n">
-        <v>1119.258064516129</v>
+        <v>1118.83870967742</v>
       </c>
     </row>
     <row r="1980">
@@ -38205,7 +38205,7 @@
         <v>1</v>
       </c>
       <c r="E1988" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.462365591398</v>
       </c>
     </row>
     <row r="1989">
@@ -38224,7 +38224,7 @@
         <v>1</v>
       </c>
       <c r="E1989" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.182795698925</v>
       </c>
     </row>
     <row r="1990">
@@ -38243,7 +38243,7 @@
         <v>1</v>
       </c>
       <c r="E1990" t="n">
-        <v>921.9999999999991</v>
+        <v>922</v>
       </c>
     </row>
     <row r="1991">
@@ -38281,7 +38281,7 @@
         <v>1</v>
       </c>
       <c r="E1992" t="n">
-        <v>1260</v>
+        <v>1258.83870967742</v>
       </c>
     </row>
     <row r="1993">
@@ -38300,7 +38300,7 @@
         <v>1</v>
       </c>
       <c r="E1993" t="n">
-        <v>1118.419354838709</v>
+        <v>1119.258064516129</v>
       </c>
     </row>
     <row r="1994">
@@ -38376,7 +38376,7 @@
         <v>1</v>
       </c>
       <c r="E1997" t="n">
-        <v>810.3870967741932</v>
+        <v>810.5806451612916</v>
       </c>
     </row>
     <row r="1998">
@@ -38395,7 +38395,7 @@
         <v>1</v>
       </c>
       <c r="E1998" t="n">
-        <v>2175</v>
+        <v>2175.967741935485</v>
       </c>
     </row>
     <row r="1999">
@@ -38471,7 +38471,7 @@
         <v>1</v>
       </c>
       <c r="E2002" t="n">
-        <v>1095.612903225807</v>
+        <v>1095.311827956989</v>
       </c>
     </row>
     <row r="2003">
@@ -38490,7 +38490,7 @@
         <v>1</v>
       </c>
       <c r="E2003" t="n">
-        <v>1956.451612903224</v>
+        <v>1955.913978494623</v>
       </c>
     </row>
     <row r="2004">
@@ -38509,7 +38509,7 @@
         <v>1</v>
       </c>
       <c r="E2004" t="n">
-        <v>921.9999999999991</v>
+        <v>922</v>
       </c>
     </row>
     <row r="2005">
@@ -38566,7 +38566,7 @@
         <v>1</v>
       </c>
       <c r="E2007" t="n">
-        <v>1118.83870967742</v>
+        <v>1118.419354838709</v>
       </c>
     </row>
     <row r="2008">
@@ -38585,7 +38585,7 @@
         <v>1</v>
       </c>
       <c r="E2008" t="n">
-        <v>1460.032258064516</v>
+        <v>1458.870967741936</v>
       </c>
     </row>
     <row r="2009">
@@ -38604,7 +38604,7 @@
         <v>1</v>
       </c>
       <c r="E2009" t="n">
-        <v>1305.241935483871</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="2010">
@@ -38623,7 +38623,7 @@
         <v>1</v>
       </c>
       <c r="E2010" t="n">
-        <v>1876.935483870968</v>
+        <v>1877.903225806452</v>
       </c>
     </row>
     <row r="2011">
@@ -38642,7 +38642,7 @@
         <v>1</v>
       </c>
       <c r="E2011" t="n">
-        <v>810.3870967741932</v>
+        <v>810.5806451612916</v>
       </c>
     </row>
     <row r="2012">
@@ -38737,7 +38737,7 @@
         <v>1</v>
       </c>
       <c r="E2016" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="2017">
@@ -38756,7 +38756,7 @@
         <v>1</v>
       </c>
       <c r="E2017" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="2018">
@@ -38775,7 +38775,7 @@
         <v>1</v>
       </c>
       <c r="E2018" t="n">
-        <v>921.9999999999991</v>
+        <v>922</v>
       </c>
     </row>
     <row r="2019">
@@ -38870,7 +38870,7 @@
         <v>1</v>
       </c>
       <c r="E2023" t="n">
-        <v>1305.66129032258</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="2024">
@@ -39003,7 +39003,7 @@
         <v>1</v>
       </c>
       <c r="E2030" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225806</v>
       </c>
     </row>
     <row r="2031">
@@ -39022,7 +39022,7 @@
         <v>1</v>
       </c>
       <c r="E2031" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="2032">
@@ -39041,7 +39041,7 @@
         <v>1</v>
       </c>
       <c r="E2032" t="n">
-        <v>921.9999999999991</v>
+        <v>922</v>
       </c>
     </row>
     <row r="2033">
@@ -39060,7 +39060,7 @@
         <v>1</v>
       </c>
       <c r="E2033" t="n">
-        <v>1022.5</v>
+        <v>1021.5</v>
       </c>
     </row>
     <row r="2034">
@@ -39117,7 +39117,7 @@
         <v>1</v>
       </c>
       <c r="E2036" t="n">
-        <v>1459.451612903225</v>
+        <v>1458.870967741936</v>
       </c>
     </row>
     <row r="2037">
@@ -39136,7 +39136,7 @@
         <v>1</v>
       </c>
       <c r="E2037" t="n">
-        <v>1305.241935483871</v>
+        <v>1304.82258064516</v>
       </c>
     </row>
     <row r="2038">
@@ -39174,7 +39174,7 @@
         <v>1</v>
       </c>
       <c r="E2039" t="n">
-        <v>810.3870967741932</v>
+        <v>810.5806451612916</v>
       </c>
     </row>
     <row r="2040">
@@ -39193,7 +39193,7 @@
         <v>1</v>
       </c>
       <c r="E2040" t="n">
-        <v>2175</v>
+        <v>2175.967741935485</v>
       </c>
     </row>
     <row r="2041">
@@ -39269,7 +39269,7 @@
         <v>1</v>
       </c>
       <c r="E2044" t="n">
-        <v>1095.311827956989</v>
+        <v>1095.612903225807</v>
       </c>
     </row>
     <row r="2045">
@@ -39288,7 +39288,7 @@
         <v>1</v>
       </c>
       <c r="E2045" t="n">
-        <v>1955.913978494623</v>
+        <v>1956.451612903224</v>
       </c>
     </row>
     <row r="2046">
@@ -39307,7 +39307,7 @@
         <v>1</v>
       </c>
       <c r="E2046" t="n">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="2047">
@@ -39326,7 +39326,7 @@
         <v>1</v>
       </c>
       <c r="E2047" t="n">
-        <v>1021.5</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="2048">
@@ -39383,7 +39383,7 @@
         <v>1</v>
       </c>
       <c r="E2050" t="n">
-        <v>1459.451612903225</v>
+        <v>1459.74193548387</v>
       </c>
     </row>
     <row r="2051">
@@ -39402,7 +39402,7 @@
         <v>1</v>
       </c>
       <c r="E2051" t="n">
-        <v>1304.82258064516</v>
+        <v>1305.241935483871</v>
       </c>
     </row>
     <row r="2052">
@@ -39535,7 +39535,7 @@
         <v>1</v>
       </c>
       <c r="E2058" t="n">
-        <v>1095.462365591398</v>
+        <v>1095.387096774193</v>
       </c>
     </row>
     <row r="2059">
@@ -39554,7 +39554,7 @@
         <v>1</v>
       </c>
       <c r="E2059" t="n">
-        <v>1956.182795698925</v>
+        <v>1956.048387096774</v>
       </c>
     </row>
     <row r="2060">
@@ -39573,7 +39573,7 @@
         <v>1</v>
       </c>
       <c r="E2060" t="n">
-        <v>922.000000000101</v>
+        <v>921.9999999999991</v>
       </c>
     </row>
     <row r="2061">
@@ -39839,7 +39839,7 @@
         <v>1</v>
       </c>
       <c r="E2074" t="n">
-        <v>923</v>
+        <v>921.9999999999991</v>
       </c>
     </row>
     <row r="2075">
@@ -39877,7 +39877,7 @@
         <v>1</v>
       </c>
       <c r="E2076" t="n">
-        <v>1259.41935483871</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="2077">
@@ -39896,7 +39896,7 @@
         <v>1</v>
       </c>
       <c r="E2077" t="n">
-        <v>1118.83870967742</v>
+        <v>1119.258064516129</v>
       </c>
     </row>
     <row r="2078">
@@ -40105,7 +40105,7 @@
         <v>1</v>
       </c>
       <c r="E2088" t="n">
-        <v>922</v>
+        <v>921.9999999999991</v>
       </c>
     </row>
     <row r="2089">
